--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1714867.35100424</v>
+        <v>1713050.267956905</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1212,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5.309829763041574</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>5.309829763041574</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.9874248534243</v>
       </c>
       <c r="C11" t="n">
-        <v>284.5264749609513</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>273.9366248106268</v>
+        <v>273.9366248106267</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.1839532622055</v>
       </c>
       <c r="F11" t="n">
         <v>326.1296289316552</v>
       </c>
       <c r="G11" t="n">
-        <v>314.8110757422875</v>
+        <v>331.83985494801</v>
       </c>
       <c r="H11" t="n">
-        <v>230.9083803711298</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>25.00292666095351</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>66.3721893369831</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.4581039025063</v>
       </c>
       <c r="U11" t="n">
         <v>170.3819188372148</v>
       </c>
       <c r="V11" t="n">
-        <v>247.0058416600787</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.4945519073568</v>
       </c>
       <c r="X11" t="n">
-        <v>288.9846838684128</v>
+        <v>57.275494390311</v>
       </c>
       <c r="Y11" t="n">
         <v>305.4915218459973</v>
@@ -1461,7 +1461,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8900798480016</v>
+        <v>135.8900798480013</v>
       </c>
       <c r="H12" t="n">
         <v>98.1982996396091</v>
@@ -1497,7 +1497,7 @@
         <v>9.917226108348146</v>
       </c>
       <c r="S12" t="n">
-        <v>144.6862104463362</v>
+        <v>144.6862104463365</v>
       </c>
       <c r="T12" t="n">
         <v>194.3063563585185</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.08556337188108</v>
+        <v>99.08556337188107</v>
       </c>
       <c r="C13" t="n">
-        <v>86.50040428857162</v>
+        <v>86.5004042885716</v>
       </c>
       <c r="D13" t="n">
-        <v>67.86905620815614</v>
+        <v>67.86905620815612</v>
       </c>
       <c r="E13" t="n">
-        <v>65.68754583651295</v>
+        <v>65.68754583651294</v>
       </c>
       <c r="F13" t="n">
-        <v>64.67463121287503</v>
+        <v>64.67463121287501</v>
       </c>
       <c r="G13" t="n">
-        <v>86.02604952745507</v>
+        <v>86.02604952745506</v>
       </c>
       <c r="H13" t="n">
-        <v>70.64706720205035</v>
+        <v>70.64706720205034</v>
       </c>
       <c r="I13" t="n">
-        <v>38.06004835998165</v>
+        <v>38.06004835998164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.75819818887504</v>
+        <v>41.75819818887502</v>
       </c>
       <c r="S13" t="n">
         <v>122.0348224891314</v>
       </c>
       <c r="T13" t="n">
-        <v>141.99279880145</v>
+        <v>141.9927988014497</v>
       </c>
       <c r="U13" t="n">
-        <v>205.5061481998376</v>
+        <v>205.5061481998375</v>
       </c>
       <c r="V13" t="n">
         <v>171.3912265137718</v>
@@ -1594,7 +1594,7 @@
         <v>144.9632385789809</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.8382365420386</v>
+        <v>137.8382365420385</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.9874248534243</v>
       </c>
       <c r="C14" t="n">
         <v>284.5264749609513</v>
       </c>
       <c r="D14" t="n">
-        <v>273.9366248106268</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.1839532622055</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1296289316552</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>331.83985494801</v>
       </c>
       <c r="H14" t="n">
-        <v>230.9083803711298</v>
+        <v>230.9083803711297</v>
       </c>
       <c r="I14" t="n">
-        <v>25.00292666095351</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.75250217158882</v>
       </c>
       <c r="T14" t="n">
-        <v>86.34038006990025</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>170.3819188372148</v>
       </c>
       <c r="V14" t="n">
-        <v>247.0058416600787</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>268.4945519073568</v>
@@ -1673,7 +1673,7 @@
         <v>288.9846838684128</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>305.4915218459973</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.917226108348146</v>
+        <v>9.917226108347531</v>
       </c>
       <c r="S15" t="n">
         <v>144.6862104463365</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.08556337188108</v>
+        <v>99.08556337188107</v>
       </c>
       <c r="C16" t="n">
-        <v>86.50040428857162</v>
+        <v>86.5004042885716</v>
       </c>
       <c r="D16" t="n">
-        <v>67.86905620815614</v>
+        <v>67.86905620815612</v>
       </c>
       <c r="E16" t="n">
-        <v>65.68754583651295</v>
+        <v>65.68754583651294</v>
       </c>
       <c r="F16" t="n">
-        <v>64.67463121287503</v>
+        <v>64.67463121287501</v>
       </c>
       <c r="G16" t="n">
-        <v>86.02604952745506</v>
+        <v>86.02604952745504</v>
       </c>
       <c r="H16" t="n">
-        <v>70.64706720205035</v>
+        <v>70.64706720205034</v>
       </c>
       <c r="I16" t="n">
-        <v>38.06004835998165</v>
+        <v>38.06004835998164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.75819818887504</v>
+        <v>41.75819818887503</v>
       </c>
       <c r="S16" t="n">
         <v>122.0348224891314</v>
@@ -1819,7 +1819,7 @@
         <v>141.9927988014497</v>
       </c>
       <c r="U16" t="n">
-        <v>205.5061481998376</v>
+        <v>205.5061481998375</v>
       </c>
       <c r="V16" t="n">
         <v>171.3912265137718</v>
@@ -1831,7 +1831,7 @@
         <v>144.9632385789809</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.8382365420386</v>
+        <v>137.8382365420385</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>261.9846444496469</v>
       </c>
       <c r="F17" t="n">
-        <v>98.03888064387995</v>
+        <v>286.9303201190965</v>
       </c>
       <c r="G17" t="n">
-        <v>292.6405461354513</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>191.7090715585711</v>
+        <v>130.2488496895305</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>27.17288052442437</v>
       </c>
       <c r="T17" t="n">
-        <v>91.25879508994763</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>131.1826100246561</v>
@@ -1904,7 +1904,7 @@
         <v>207.80653284752</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>229.2952430947981</v>
       </c>
       <c r="X17" t="n">
         <v>249.7853750558541</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.917226108347531</v>
+        <v>9.917226108348146</v>
       </c>
       <c r="S18" t="n">
         <v>144.6862104463365</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.88625455932238</v>
+        <v>59.88625455932235</v>
       </c>
       <c r="C19" t="n">
-        <v>47.30109547601292</v>
+        <v>47.30109547601289</v>
       </c>
       <c r="D19" t="n">
-        <v>28.66974739559744</v>
+        <v>28.66974739559741</v>
       </c>
       <c r="E19" t="n">
-        <v>26.48823702395426</v>
+        <v>26.48823702395423</v>
       </c>
       <c r="F19" t="n">
-        <v>25.47532240031633</v>
+        <v>25.4753224003163</v>
       </c>
       <c r="G19" t="n">
-        <v>46.82674071489637</v>
+        <v>46.82674071489633</v>
       </c>
       <c r="H19" t="n">
-        <v>31.44775838949165</v>
+        <v>31.44775838949163</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.558889376316337</v>
+        <v>2.558889376316316</v>
       </c>
       <c r="S19" t="n">
-        <v>82.83551367657273</v>
+        <v>82.83551367657269</v>
       </c>
       <c r="T19" t="n">
         <v>102.793489988891</v>
@@ -2068,7 +2068,7 @@
         <v>105.7639297664222</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.63892772947987</v>
+        <v>98.63892772947985</v>
       </c>
     </row>
     <row r="20">
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>91.25879508994763</v>
+        <v>33.54996563938696</v>
       </c>
       <c r="U20" t="n">
-        <v>131.1826100246561</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>207.80653284752</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>60.89393558063747</v>
+        <v>249.7853750558541</v>
       </c>
       <c r="Y20" t="n">
         <v>266.2922130334387</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8900798480013</v>
+        <v>135.8900798480016</v>
       </c>
       <c r="H21" t="n">
         <v>98.1982996396091</v>
       </c>
       <c r="I21" t="n">
-        <v>39.35504107777029</v>
+        <v>39.3550410777703</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.917226108348132</v>
+        <v>9.917226108348146</v>
       </c>
       <c r="S21" t="n">
         <v>144.6862104463365</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.88625455932238</v>
+        <v>59.88625455932235</v>
       </c>
       <c r="C22" t="n">
-        <v>47.30109547601292</v>
+        <v>47.30109547601289</v>
       </c>
       <c r="D22" t="n">
-        <v>28.66974739559744</v>
+        <v>28.66974739559741</v>
       </c>
       <c r="E22" t="n">
-        <v>26.48823702395426</v>
+        <v>26.48823702395423</v>
       </c>
       <c r="F22" t="n">
-        <v>25.47532240031633</v>
+        <v>25.4753224003163</v>
       </c>
       <c r="G22" t="n">
-        <v>46.82674071489637</v>
+        <v>46.82674071489634</v>
       </c>
       <c r="H22" t="n">
-        <v>31.44775838949165</v>
+        <v>31.44775838949163</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.55888937631633</v>
+        <v>2.558889376316309</v>
       </c>
       <c r="S22" t="n">
-        <v>82.83551367657273</v>
+        <v>82.8355136765727</v>
       </c>
       <c r="T22" t="n">
         <v>102.793489988891</v>
@@ -2305,7 +2305,7 @@
         <v>105.7639297664222</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.63892772947987</v>
+        <v>98.63892772947985</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.1728805244244</v>
+        <v>27.17288052442437</v>
       </c>
       <c r="T23" t="n">
-        <v>91.25879508994764</v>
+        <v>91.25879508994761</v>
       </c>
       <c r="U23" t="n">
         <v>131.1826100246561</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.88625455932238</v>
+        <v>59.88625455932235</v>
       </c>
       <c r="C25" t="n">
-        <v>47.30109547601292</v>
+        <v>47.30109547601289</v>
       </c>
       <c r="D25" t="n">
-        <v>28.66974739559744</v>
+        <v>28.66974739559741</v>
       </c>
       <c r="E25" t="n">
-        <v>26.48823702395426</v>
+        <v>26.48823702395423</v>
       </c>
       <c r="F25" t="n">
-        <v>25.47532240031633</v>
+        <v>25.4753224003163</v>
       </c>
       <c r="G25" t="n">
-        <v>46.82674071489637</v>
+        <v>46.82674071489634</v>
       </c>
       <c r="H25" t="n">
-        <v>31.44775838949165</v>
+        <v>31.44775838949181</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.558889376316337</v>
+        <v>2.558889376316309</v>
       </c>
       <c r="S25" t="n">
-        <v>82.83551367657273</v>
+        <v>82.8355136765727</v>
       </c>
       <c r="T25" t="n">
         <v>102.793489988891</v>
@@ -2542,7 +2542,7 @@
         <v>105.7639297664222</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.63892772947987</v>
+        <v>98.63892772947985</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>304.8800443921626</v>
+        <v>304.8800443921628</v>
       </c>
       <c r="C26" t="n">
-        <v>287.4190944996896</v>
+        <v>287.4190944996898</v>
       </c>
       <c r="D26" t="n">
-        <v>276.829244349365</v>
+        <v>276.8292443493652</v>
       </c>
       <c r="E26" t="n">
-        <v>304.0765728009438</v>
+        <v>304.076572800944</v>
       </c>
       <c r="F26" t="n">
-        <v>329.0222484703935</v>
+        <v>329.0222484703937</v>
       </c>
       <c r="G26" t="n">
-        <v>334.7324744867483</v>
+        <v>334.7324744867485</v>
       </c>
       <c r="H26" t="n">
-        <v>233.800999909868</v>
+        <v>233.8009999098682</v>
       </c>
       <c r="I26" t="n">
-        <v>27.89554619969176</v>
+        <v>27.89554619969194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.26480887572134</v>
+        <v>69.26480887572151</v>
       </c>
       <c r="T26" t="n">
-        <v>133.3507234412446</v>
+        <v>133.3507234412448</v>
       </c>
       <c r="U26" t="n">
-        <v>173.2745383759531</v>
+        <v>173.2745383759532</v>
       </c>
       <c r="V26" t="n">
-        <v>249.898461198817</v>
+        <v>249.8984611988171</v>
       </c>
       <c r="W26" t="n">
-        <v>271.3871714460951</v>
+        <v>271.3871714460952</v>
       </c>
       <c r="X26" t="n">
-        <v>291.8773034071511</v>
+        <v>291.8773034071513</v>
       </c>
       <c r="Y26" t="n">
-        <v>308.3841413847356</v>
+        <v>308.3841413847358</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.5830697630823</v>
+        <v>101.9781829106195</v>
       </c>
       <c r="C28" t="n">
-        <v>89.39302382730988</v>
+        <v>89.39302382731005</v>
       </c>
       <c r="D28" t="n">
-        <v>70.7616757468944</v>
+        <v>70.76167574689457</v>
       </c>
       <c r="E28" t="n">
-        <v>68.58016537525121</v>
+        <v>68.58016537525138</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>67.56725075161346</v>
       </c>
       <c r="G28" t="n">
-        <v>88.91866906619332</v>
+        <v>88.91866906619349</v>
       </c>
       <c r="H28" t="n">
-        <v>73.53968674078861</v>
+        <v>73.53968674078878</v>
       </c>
       <c r="I28" t="n">
-        <v>40.95266789871991</v>
+        <v>40.95266789872008</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.65081772761329</v>
+        <v>44.65081772761346</v>
       </c>
       <c r="S28" t="n">
-        <v>124.9274420278697</v>
+        <v>55.96507812871494</v>
       </c>
       <c r="T28" t="n">
-        <v>144.885418340188</v>
+        <v>144.8854183401882</v>
       </c>
       <c r="U28" t="n">
-        <v>208.3987677385758</v>
+        <v>208.398767738576</v>
       </c>
       <c r="V28" t="n">
-        <v>174.2838460525101</v>
+        <v>174.2838460525102</v>
       </c>
       <c r="W28" t="n">
-        <v>208.6692010652731</v>
+        <v>208.6692010652732</v>
       </c>
       <c r="X28" t="n">
-        <v>147.8558581177192</v>
+        <v>147.8558581177194</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.7308560807768</v>
+        <v>140.730856080777</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>304.8800443921627</v>
+        <v>304.8800443921628</v>
       </c>
       <c r="C29" t="n">
-        <v>287.4190944996897</v>
+        <v>287.4190944996898</v>
       </c>
       <c r="D29" t="n">
-        <v>276.8292443493651</v>
+        <v>276.8292443493652</v>
       </c>
       <c r="E29" t="n">
-        <v>304.0765728009439</v>
+        <v>304.076572800944</v>
       </c>
       <c r="F29" t="n">
-        <v>329.0222484703935</v>
+        <v>329.0222484703937</v>
       </c>
       <c r="G29" t="n">
-        <v>334.7324744867483</v>
+        <v>334.7324744867485</v>
       </c>
       <c r="H29" t="n">
-        <v>233.8009999098681</v>
+        <v>233.8009999098682</v>
       </c>
       <c r="I29" t="n">
-        <v>27.89554619969182</v>
+        <v>27.89554619969194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.26480887572141</v>
+        <v>69.26480887572153</v>
       </c>
       <c r="T29" t="n">
-        <v>133.3507234412447</v>
+        <v>133.3507234412448</v>
       </c>
       <c r="U29" t="n">
-        <v>173.2745383759531</v>
+        <v>173.2745383759532</v>
       </c>
       <c r="V29" t="n">
-        <v>249.898461198817</v>
+        <v>249.8984611988171</v>
       </c>
       <c r="W29" t="n">
-        <v>271.3871714460951</v>
+        <v>271.3871714460952</v>
       </c>
       <c r="X29" t="n">
-        <v>291.8773034071511</v>
+        <v>291.8773034071513</v>
       </c>
       <c r="Y29" t="n">
-        <v>308.3841413847357</v>
+        <v>308.3841413847358</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.9781829106194</v>
+        <v>101.9781829106195</v>
       </c>
       <c r="C31" t="n">
-        <v>89.39302382730993</v>
+        <v>89.39302382731005</v>
       </c>
       <c r="D31" t="n">
-        <v>70.76167574689445</v>
+        <v>70.76167574689457</v>
       </c>
       <c r="E31" t="n">
-        <v>68.58016537525127</v>
+        <v>68.58016537525138</v>
       </c>
       <c r="F31" t="n">
-        <v>67.56725075161334</v>
+        <v>67.56725075161346</v>
       </c>
       <c r="G31" t="n">
-        <v>88.91866906619337</v>
+        <v>88.91866906619349</v>
       </c>
       <c r="H31" t="n">
-        <v>73.53968674078867</v>
+        <v>73.53968674078878</v>
       </c>
       <c r="I31" t="n">
-        <v>40.95266789871997</v>
+        <v>40.95266789872008</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.65081772761336</v>
+        <v>44.65081772761347</v>
       </c>
       <c r="S31" t="n">
-        <v>55.96507812871704</v>
+        <v>124.9274420278698</v>
       </c>
       <c r="T31" t="n">
-        <v>144.885418340188</v>
+        <v>75.92305444103324</v>
       </c>
       <c r="U31" t="n">
-        <v>208.3987677385759</v>
+        <v>208.398767738576</v>
       </c>
       <c r="V31" t="n">
-        <v>174.2838460525101</v>
+        <v>174.2838460525102</v>
       </c>
       <c r="W31" t="n">
-        <v>208.6692010652731</v>
+        <v>208.6692010652732</v>
       </c>
       <c r="X31" t="n">
-        <v>147.8558581177193</v>
+        <v>147.8558581177194</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.7308560807769</v>
+        <v>140.730856080777</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.101073837867</v>
+        <v>303.1010738378673</v>
       </c>
       <c r="C32" t="n">
-        <v>285.6401239453941</v>
+        <v>285.6401239453942</v>
       </c>
       <c r="D32" t="n">
-        <v>275.0502737950694</v>
+        <v>275.0502737950696</v>
       </c>
       <c r="E32" t="n">
-        <v>302.2976022466482</v>
+        <v>302.2976022466485</v>
       </c>
       <c r="F32" t="n">
-        <v>327.2432779160979</v>
+        <v>327.2432779160981</v>
       </c>
       <c r="G32" t="n">
-        <v>332.9535039324527</v>
+        <v>332.9535039324529</v>
       </c>
       <c r="H32" t="n">
-        <v>232.0220293555724</v>
+        <v>232.0220293555727</v>
       </c>
       <c r="I32" t="n">
-        <v>26.11657564539621</v>
+        <v>26.11657564539638</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.4858383214258</v>
+        <v>67.48583832142597</v>
       </c>
       <c r="T32" t="n">
-        <v>131.571752886949</v>
+        <v>131.5717528869492</v>
       </c>
       <c r="U32" t="n">
-        <v>171.4955678216575</v>
+        <v>171.4955678216577</v>
       </c>
       <c r="V32" t="n">
-        <v>248.1194906445214</v>
+        <v>248.1194906445216</v>
       </c>
       <c r="W32" t="n">
-        <v>269.6082008917995</v>
+        <v>269.6082008917997</v>
       </c>
       <c r="X32" t="n">
-        <v>290.0983328528555</v>
+        <v>290.0983328528557</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.6051708304401</v>
+        <v>306.6051708304402</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.1992123563238</v>
+        <v>100.199212356324</v>
       </c>
       <c r="C34" t="n">
-        <v>87.61405327301432</v>
+        <v>87.61405327301449</v>
       </c>
       <c r="D34" t="n">
-        <v>68.98270519259884</v>
+        <v>68.98270519259901</v>
       </c>
       <c r="E34" t="n">
-        <v>66.80119482095566</v>
+        <v>66.80119482095583</v>
       </c>
       <c r="F34" t="n">
-        <v>65.78828019731773</v>
+        <v>39.23799748901291</v>
       </c>
       <c r="G34" t="n">
-        <v>87.13969851189778</v>
+        <v>87.13969851189793</v>
       </c>
       <c r="H34" t="n">
-        <v>45.21043347819142</v>
+        <v>71.76071618649323</v>
       </c>
       <c r="I34" t="n">
-        <v>39.17369734442435</v>
+        <v>39.17369734442453</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.87184717331774</v>
+        <v>42.87184717331791</v>
       </c>
       <c r="S34" t="n">
-        <v>123.1484714735741</v>
+        <v>123.1484714735743</v>
       </c>
       <c r="T34" t="n">
-        <v>143.1064477858924</v>
+        <v>143.1064477858926</v>
       </c>
       <c r="U34" t="n">
-        <v>206.6197971842803</v>
+        <v>206.6197971842804</v>
       </c>
       <c r="V34" t="n">
-        <v>172.5048754982145</v>
+        <v>172.5048754982147</v>
       </c>
       <c r="W34" t="n">
-        <v>206.8902305109775</v>
+        <v>206.8902305109777</v>
       </c>
       <c r="X34" t="n">
-        <v>146.0768875634236</v>
+        <v>146.0768875634238</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.9518855264813</v>
+        <v>138.9518855264814</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.9874248534245</v>
+        <v>301.9874248534244</v>
       </c>
       <c r="C35" t="n">
         <v>284.5264749609514</v>
       </c>
       <c r="D35" t="n">
-        <v>273.9366248106269</v>
+        <v>273.9366248106268</v>
       </c>
       <c r="E35" t="n">
-        <v>301.1839532622057</v>
+        <v>301.1839532622056</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1296289316554</v>
+        <v>326.1296289316552</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8398549480102</v>
+        <v>331.83985494801</v>
       </c>
       <c r="H35" t="n">
-        <v>230.9083803711299</v>
+        <v>230.9083803711298</v>
       </c>
       <c r="I35" t="n">
-        <v>25.00292666095365</v>
+        <v>25.00292666095356</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.37218933698321</v>
+        <v>66.37218933698313</v>
       </c>
       <c r="T35" t="n">
-        <v>130.4581039025065</v>
+        <v>130.4581039025064</v>
       </c>
       <c r="U35" t="n">
-        <v>170.3819188372149</v>
+        <v>170.3819188372148</v>
       </c>
       <c r="V35" t="n">
-        <v>247.0058416600788</v>
+        <v>247.0058416600787</v>
       </c>
       <c r="W35" t="n">
-        <v>268.4945519073569</v>
+        <v>268.4945519073568</v>
       </c>
       <c r="X35" t="n">
-        <v>288.984683868413</v>
+        <v>288.9846838684128</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.4915218459975</v>
+        <v>305.4915218459974</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.08556337188119</v>
+        <v>99.08556337188111</v>
       </c>
       <c r="C37" t="n">
-        <v>86.50040428857173</v>
+        <v>86.50040428857164</v>
       </c>
       <c r="D37" t="n">
-        <v>67.86905620815625</v>
+        <v>67.86905620815617</v>
       </c>
       <c r="E37" t="n">
-        <v>65.68754583651307</v>
+        <v>65.68754583651298</v>
       </c>
       <c r="F37" t="n">
-        <v>64.67463121287514</v>
+        <v>64.67463121287506</v>
       </c>
       <c r="G37" t="n">
-        <v>86.02604952745519</v>
+        <v>86.0260495274551</v>
       </c>
       <c r="H37" t="n">
-        <v>70.64706720205047</v>
+        <v>70.64706720205038</v>
       </c>
       <c r="I37" t="n">
-        <v>38.06004835998177</v>
+        <v>38.06004835998169</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75819818887516</v>
+        <v>41.75819818887508</v>
       </c>
       <c r="S37" t="n">
         <v>122.0348224891315</v>
       </c>
       <c r="T37" t="n">
-        <v>141.9927988014498</v>
+        <v>141.9927988014497</v>
       </c>
       <c r="U37" t="n">
         <v>205.5061481998376</v>
       </c>
       <c r="V37" t="n">
-        <v>171.3912265137719</v>
+        <v>171.3912265137718</v>
       </c>
       <c r="W37" t="n">
-        <v>205.7765815265349</v>
+        <v>205.7765815265348</v>
       </c>
       <c r="X37" t="n">
         <v>144.963238578981</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.8382365420387</v>
+        <v>137.8382365420386</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.9874248534245</v>
+        <v>301.9874248534244</v>
       </c>
       <c r="C38" t="n">
         <v>284.5264749609514</v>
       </c>
       <c r="D38" t="n">
-        <v>273.9366248106269</v>
+        <v>273.9366248106268</v>
       </c>
       <c r="E38" t="n">
-        <v>301.1839532622057</v>
+        <v>301.1839532622056</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1296289316554</v>
+        <v>326.1296289316552</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8398549480102</v>
+        <v>331.83985494801</v>
       </c>
       <c r="H38" t="n">
-        <v>230.9083803711299</v>
+        <v>230.9083803711298</v>
       </c>
       <c r="I38" t="n">
-        <v>25.00292666095365</v>
+        <v>25.00292666095356</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.37218933698321</v>
+        <v>66.37218933698313</v>
       </c>
       <c r="T38" t="n">
-        <v>130.4581039025065</v>
+        <v>130.4581039025064</v>
       </c>
       <c r="U38" t="n">
-        <v>170.3819188372149</v>
+        <v>170.3819188372148</v>
       </c>
       <c r="V38" t="n">
-        <v>247.0058416600788</v>
+        <v>247.0058416600787</v>
       </c>
       <c r="W38" t="n">
-        <v>268.4945519073569</v>
+        <v>268.4945519073568</v>
       </c>
       <c r="X38" t="n">
-        <v>288.984683868413</v>
+        <v>288.9846838684128</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.4915218459975</v>
+        <v>305.4915218459974</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.08556337188119</v>
+        <v>99.08556337188111</v>
       </c>
       <c r="C40" t="n">
-        <v>86.50040428857173</v>
+        <v>86.50040428857164</v>
       </c>
       <c r="D40" t="n">
-        <v>67.86905620815625</v>
+        <v>67.86905620815617</v>
       </c>
       <c r="E40" t="n">
-        <v>65.68754583651307</v>
+        <v>65.68754583651298</v>
       </c>
       <c r="F40" t="n">
-        <v>64.67463121287514</v>
+        <v>64.67463121287506</v>
       </c>
       <c r="G40" t="n">
-        <v>86.02604952745519</v>
+        <v>86.0260495274551</v>
       </c>
       <c r="H40" t="n">
-        <v>70.64706720205047</v>
+        <v>70.64706720205038</v>
       </c>
       <c r="I40" t="n">
-        <v>38.06004835998177</v>
+        <v>38.06004835998169</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75819818887516</v>
+        <v>41.75819818887508</v>
       </c>
       <c r="S40" t="n">
         <v>122.0348224891315</v>
       </c>
       <c r="T40" t="n">
-        <v>141.9927988014498</v>
+        <v>141.9927988014497</v>
       </c>
       <c r="U40" t="n">
         <v>205.5061481998376</v>
       </c>
       <c r="V40" t="n">
-        <v>171.3912265137719</v>
+        <v>171.3912265137718</v>
       </c>
       <c r="W40" t="n">
-        <v>205.7765815265349</v>
+        <v>205.7765815265348</v>
       </c>
       <c r="X40" t="n">
         <v>144.963238578981</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.8382365420387</v>
+        <v>137.8382365420386</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>230.9083803711298</v>
       </c>
       <c r="I41" t="n">
-        <v>25.00292666095355</v>
+        <v>25.00292666095352</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>98.1982996396091</v>
       </c>
       <c r="I42" t="n">
-        <v>39.35504107777031</v>
+        <v>39.3550410777703</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.91722610834816</v>
+        <v>9.917226108348146</v>
       </c>
       <c r="S42" t="n">
         <v>144.6862104463365</v>
@@ -3910,13 +3910,13 @@
         <v>64.67463121287504</v>
       </c>
       <c r="G43" t="n">
-        <v>86.02604952745509</v>
+        <v>86.02604952745507</v>
       </c>
       <c r="H43" t="n">
         <v>70.64706720205037</v>
       </c>
       <c r="I43" t="n">
-        <v>38.06004835998167</v>
+        <v>38.06004835998166</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75819818887506</v>
+        <v>41.75819818887505</v>
       </c>
       <c r="S43" t="n">
         <v>122.0348224891315</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.9874248534243</v>
+        <v>301.9874248534244</v>
       </c>
       <c r="C44" t="n">
-        <v>284.5264749609523</v>
+        <v>284.5264749609514</v>
       </c>
       <c r="D44" t="n">
-        <v>273.9366248106267</v>
+        <v>273.9366248106268</v>
       </c>
       <c r="E44" t="n">
-        <v>301.1839532622055</v>
+        <v>301.1839532622056</v>
       </c>
       <c r="F44" t="n">
         <v>326.1296289316552</v>
@@ -3992,7 +3992,7 @@
         <v>331.83985494801</v>
       </c>
       <c r="H44" t="n">
-        <v>230.9083803711297</v>
+        <v>230.9083803711298</v>
       </c>
       <c r="I44" t="n">
         <v>25.00292666095352</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.37218933698307</v>
+        <v>66.37218933698311</v>
       </c>
       <c r="T44" t="n">
-        <v>130.4581039025063</v>
+        <v>130.4581039025064</v>
       </c>
       <c r="U44" t="n">
         <v>170.3819188372148</v>
@@ -4043,7 +4043,7 @@
         <v>288.9846838684128</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.4915218459973</v>
+        <v>305.4915218459974</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.1982996396091</v>
       </c>
       <c r="I45" t="n">
-        <v>39.35504107777032</v>
+        <v>39.3550410777703</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.917226108348189</v>
+        <v>9.917226108348146</v>
       </c>
       <c r="S45" t="n">
         <v>144.6862104463365</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.08556337188104</v>
+        <v>99.08556337188109</v>
       </c>
       <c r="C46" t="n">
-        <v>86.50040428857157</v>
+        <v>86.50040428857163</v>
       </c>
       <c r="D46" t="n">
-        <v>67.8690562081561</v>
+        <v>67.86905620815615</v>
       </c>
       <c r="E46" t="n">
-        <v>65.68754583651291</v>
+        <v>65.68754583651297</v>
       </c>
       <c r="F46" t="n">
-        <v>64.67463121287498</v>
+        <v>64.67463121287504</v>
       </c>
       <c r="G46" t="n">
-        <v>86.02604952745502</v>
+        <v>86.02604952745509</v>
       </c>
       <c r="H46" t="n">
-        <v>70.64706720205032</v>
+        <v>70.64706720205037</v>
       </c>
       <c r="I46" t="n">
-        <v>38.06004835998163</v>
+        <v>38.06004835998166</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75819818887502</v>
+        <v>41.75819818887505</v>
       </c>
       <c r="S46" t="n">
-        <v>122.0348224891314</v>
+        <v>122.0348224891315</v>
       </c>
       <c r="T46" t="n">
         <v>141.9927988014497</v>
       </c>
       <c r="U46" t="n">
-        <v>205.5061481998375</v>
+        <v>205.5061481998376</v>
       </c>
       <c r="V46" t="n">
         <v>171.3912265137718</v>
@@ -4198,10 +4198,10 @@
         <v>205.7765815265348</v>
       </c>
       <c r="X46" t="n">
-        <v>144.9632385789809</v>
+        <v>144.963238578981</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.8382365420385</v>
+        <v>137.8382365420386</v>
       </c>
     </row>
   </sheetData>
@@ -4811,19 +4811,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R8" t="n">
         <v>20.55868221764227</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.304216312122629</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="D9" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="E9" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="F9" t="n">
         <v>1.304216312122629</v>
@@ -4884,49 +4884,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>22.14071855973305</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>22.14071855973305</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>22.14071855973305</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>15.19521781052957</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>8.2497170613261</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W9" t="n">
-        <v>1.304216312122629</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X9" t="n">
-        <v>1.304216312122629</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.304216312122629</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369149</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F10" t="n">
         <v>0.5500836593369149</v>
@@ -4984,28 +4984,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T10" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U10" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1522.242666036464</v>
+        <v>1297.772919041407</v>
       </c>
       <c r="C11" t="n">
-        <v>1234.842186277928</v>
+        <v>1297.772919041407</v>
       </c>
       <c r="D11" t="n">
-        <v>958.1385248530523</v>
+        <v>1021.069257616532</v>
       </c>
       <c r="E11" t="n">
-        <v>958.1385248530523</v>
+        <v>716.8430422001625</v>
       </c>
       <c r="F11" t="n">
-        <v>628.7146572453198</v>
+        <v>387.4191745924299</v>
       </c>
       <c r="G11" t="n">
-        <v>310.7236716470495</v>
+        <v>52.22740191767247</v>
       </c>
       <c r="H11" t="n">
-        <v>77.48288339338308</v>
+        <v>52.22740191767247</v>
       </c>
       <c r="I11" t="n">
         <v>52.22740191767247</v>
       </c>
       <c r="J11" t="n">
-        <v>101.2430256297837</v>
+        <v>268.6486746501367</v>
       </c>
       <c r="K11" t="n">
-        <v>225.44325783054</v>
+        <v>642.3963316970345</v>
       </c>
       <c r="L11" t="n">
-        <v>829.910992674252</v>
+        <v>1246.864066540747</v>
       </c>
       <c r="M11" t="n">
-        <v>1476.225091405449</v>
+        <v>1491.039037333</v>
       </c>
       <c r="N11" t="n">
-        <v>2122.539190136646</v>
+        <v>2137.353136064197</v>
       </c>
       <c r="O11" t="n">
-        <v>2347.858941457244</v>
+        <v>2362.672887384795</v>
       </c>
       <c r="P11" t="n">
         <v>2520.477081321286</v>
@@ -5069,22 +5069,22 @@
         <v>2544.327480391722</v>
       </c>
       <c r="T11" t="n">
-        <v>2544.327480391722</v>
+        <v>2412.551617863937</v>
       </c>
       <c r="U11" t="n">
-        <v>2372.224532071302</v>
+        <v>2240.448669543518</v>
       </c>
       <c r="V11" t="n">
-        <v>2122.723681909606</v>
+        <v>2240.448669543518</v>
       </c>
       <c r="W11" t="n">
-        <v>2122.723681909606</v>
+        <v>1969.242051455279</v>
       </c>
       <c r="X11" t="n">
-        <v>1830.819960830401</v>
+        <v>1911.388016717591</v>
       </c>
       <c r="Y11" t="n">
-        <v>1522.242666036464</v>
+        <v>1602.810721923654</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.5923291571879</v>
+        <v>957.5923291571876</v>
       </c>
       <c r="C12" t="n">
-        <v>783.1392998760609</v>
+        <v>783.1392998760606</v>
       </c>
       <c r="D12" t="n">
-        <v>634.2048902148097</v>
+        <v>634.2048902148093</v>
       </c>
       <c r="E12" t="n">
-        <v>474.9674352093542</v>
+        <v>474.9674352093538</v>
       </c>
       <c r="F12" t="n">
-        <v>328.4328772362392</v>
+        <v>328.4328772362388</v>
       </c>
       <c r="G12" t="n">
         <v>191.1701703190658</v>
@@ -5118,19 +5118,19 @@
         <v>52.22740191767247</v>
       </c>
       <c r="J12" t="n">
-        <v>187.4330496399793</v>
+        <v>62.60292465297454</v>
       </c>
       <c r="K12" t="n">
-        <v>545.1418799509347</v>
+        <v>420.31175496393</v>
       </c>
       <c r="L12" t="n">
-        <v>809.1882003755253</v>
+        <v>595.5678757648791</v>
       </c>
       <c r="M12" t="n">
-        <v>1455.502299106722</v>
+        <v>1065.57860302276</v>
       </c>
       <c r="N12" t="n">
-        <v>1699.708677657535</v>
+        <v>1309.784981573573</v>
       </c>
       <c r="O12" t="n">
         <v>1900.890009244218</v>
@@ -5157,7 +5157,7 @@
         <v>1795.656821875944</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.419465147743</v>
+        <v>1541.419465147742</v>
       </c>
       <c r="X12" t="n">
         <v>1333.56796494221</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.5352833677759</v>
+        <v>536.5352833677765</v>
       </c>
       <c r="C13" t="n">
-        <v>449.161137621744</v>
+        <v>449.1611376217446</v>
       </c>
       <c r="D13" t="n">
-        <v>380.6065353912832</v>
+        <v>380.6065353912838</v>
       </c>
       <c r="E13" t="n">
-        <v>314.2554789907651</v>
+        <v>314.2554789907655</v>
       </c>
       <c r="F13" t="n">
-        <v>248.9275686747299</v>
+        <v>248.9275686747301</v>
       </c>
       <c r="G13" t="n">
-        <v>162.0325691520479</v>
+        <v>162.0325691520482</v>
       </c>
       <c r="H13" t="n">
-        <v>90.67189521058322</v>
+        <v>90.67189521058324</v>
       </c>
       <c r="I13" t="n">
         <v>52.22740191767247</v>
@@ -5200,13 +5200,13 @@
         <v>125.0281481192986</v>
       </c>
       <c r="K13" t="n">
-        <v>323.0736715230086</v>
+        <v>323.0736715230087</v>
       </c>
       <c r="L13" t="n">
         <v>609.6748066738521</v>
       </c>
       <c r="M13" t="n">
-        <v>917.8991776898056</v>
+        <v>917.8991776898057</v>
       </c>
       <c r="N13" t="n">
         <v>1226.130048121677</v>
@@ -5236,13 +5236,13 @@
         <v>1130.134899549024</v>
       </c>
       <c r="W13" t="n">
-        <v>922.2797666939382</v>
+        <v>922.2797666939387</v>
       </c>
       <c r="X13" t="n">
-        <v>775.8522529777958</v>
+        <v>775.8522529777964</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.6217110161407</v>
+        <v>636.6217110161413</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1539.443453112952</v>
+        <v>1212.286658021002</v>
       </c>
       <c r="C14" t="n">
-        <v>1252.042973354416</v>
+        <v>924.8861782624658</v>
       </c>
       <c r="D14" t="n">
-        <v>975.3393119295399</v>
+        <v>924.8861782624658</v>
       </c>
       <c r="E14" t="n">
-        <v>975.3393119295399</v>
+        <v>620.6599628460965</v>
       </c>
       <c r="F14" t="n">
-        <v>645.9154443218074</v>
+        <v>620.6599628460965</v>
       </c>
       <c r="G14" t="n">
-        <v>310.7236716470497</v>
+        <v>285.4681901713389</v>
       </c>
       <c r="H14" t="n">
-        <v>77.48288339338308</v>
+        <v>52.22740191767247</v>
       </c>
       <c r="I14" t="n">
         <v>52.22740191767247</v>
@@ -5282,16 +5282,16 @@
         <v>713.7528652963462</v>
       </c>
       <c r="L14" t="n">
-        <v>1053.254359592943</v>
+        <v>904.7359977351123</v>
       </c>
       <c r="M14" t="n">
-        <v>1297.429330385196</v>
+        <v>1551.050096466309</v>
       </c>
       <c r="N14" t="n">
-        <v>1550.169115860774</v>
+        <v>1803.789881941887</v>
       </c>
       <c r="O14" t="n">
-        <v>2152.48104663149</v>
+        <v>2029.109633262485</v>
       </c>
       <c r="P14" t="n">
         <v>2310.285240567981</v>
@@ -5303,25 +5303,25 @@
         <v>2611.370095883623</v>
       </c>
       <c r="S14" t="n">
-        <v>2611.370095883623</v>
+        <v>2561.115043185049</v>
       </c>
       <c r="T14" t="n">
-        <v>2524.157590762512</v>
+        <v>2561.115043185049</v>
       </c>
       <c r="U14" t="n">
-        <v>2352.054642442092</v>
+        <v>2389.01209486463</v>
       </c>
       <c r="V14" t="n">
-        <v>2102.553792280396</v>
+        <v>2389.01209486463</v>
       </c>
       <c r="W14" t="n">
-        <v>1831.347174192157</v>
+        <v>2117.805476776391</v>
       </c>
       <c r="X14" t="n">
-        <v>1539.443453112952</v>
+        <v>1825.901755697186</v>
       </c>
       <c r="Y14" t="n">
-        <v>1539.443453112952</v>
+        <v>1517.324460903249</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.5923291571876</v>
+        <v>957.5923291571879</v>
       </c>
       <c r="C15" t="n">
-        <v>783.1392998760606</v>
+        <v>783.1392998760609</v>
       </c>
       <c r="D15" t="n">
-        <v>634.2048902148092</v>
+        <v>634.2048902148097</v>
       </c>
       <c r="E15" t="n">
-        <v>474.9674352093537</v>
+        <v>474.9674352093542</v>
       </c>
       <c r="F15" t="n">
-        <v>328.4328772362387</v>
+        <v>328.4328772362392</v>
       </c>
       <c r="G15" t="n">
-        <v>191.1701703190656</v>
+        <v>191.1701703190658</v>
       </c>
       <c r="H15" t="n">
-        <v>91.97996866289499</v>
+        <v>91.979968662895</v>
       </c>
       <c r="I15" t="n">
         <v>52.22740191767247</v>
@@ -5364,13 +5364,13 @@
         <v>1087.529942602308</v>
       </c>
       <c r="M15" t="n">
-        <v>1733.844041333505</v>
+        <v>1311.402437452099</v>
       </c>
       <c r="N15" t="n">
-        <v>1978.050419884318</v>
+        <v>1699.708677657535</v>
       </c>
       <c r="O15" t="n">
-        <v>2179.231751471001</v>
+        <v>1900.890009244218</v>
       </c>
       <c r="P15" t="n">
         <v>2358.300839012287</v>
@@ -5394,7 +5394,7 @@
         <v>1795.656821875944</v>
       </c>
       <c r="W15" t="n">
-        <v>1541.419465147742</v>
+        <v>1541.419465147743</v>
       </c>
       <c r="X15" t="n">
         <v>1333.56796494221</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.5352833677764</v>
+        <v>536.5352833677769</v>
       </c>
       <c r="C16" t="n">
-        <v>449.1611376217445</v>
+        <v>449.161137621745</v>
       </c>
       <c r="D16" t="n">
-        <v>380.6065353912837</v>
+        <v>380.6065353912842</v>
       </c>
       <c r="E16" t="n">
-        <v>314.2554789907656</v>
+        <v>314.2554789907658</v>
       </c>
       <c r="F16" t="n">
-        <v>248.9275686747301</v>
+        <v>248.9275686747305</v>
       </c>
       <c r="G16" t="n">
-        <v>162.0325691520484</v>
+        <v>162.0325691520486</v>
       </c>
       <c r="H16" t="n">
-        <v>90.67189521058344</v>
+        <v>90.67189521058361</v>
       </c>
       <c r="I16" t="n">
         <v>52.22740191767247</v>
@@ -5440,7 +5440,7 @@
         <v>323.0736715230087</v>
       </c>
       <c r="L16" t="n">
-        <v>609.6748066738522</v>
+        <v>609.6748066738523</v>
       </c>
       <c r="M16" t="n">
         <v>917.8991776898058</v>
@@ -5458,28 +5458,28 @@
         <v>1819.713883582424</v>
       </c>
       <c r="R16" t="n">
-        <v>1777.533885411843</v>
+        <v>1777.533885411844</v>
       </c>
       <c r="S16" t="n">
         <v>1654.266387948074</v>
       </c>
       <c r="T16" t="n">
-        <v>1510.83931845166</v>
+        <v>1510.839318451661</v>
       </c>
       <c r="U16" t="n">
-        <v>1303.257350573036</v>
+        <v>1303.257350573037</v>
       </c>
       <c r="V16" t="n">
-        <v>1130.134899549024</v>
+        <v>1130.134899549025</v>
       </c>
       <c r="W16" t="n">
-        <v>922.2797666939387</v>
+        <v>922.2797666939391</v>
       </c>
       <c r="X16" t="n">
-        <v>775.8522529777963</v>
+        <v>775.8522529777968</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.6217110161411</v>
+        <v>636.6217110161416</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1390.043184679299</v>
+        <v>1223.165075053768</v>
       </c>
       <c r="C17" t="n">
-        <v>1142.237966347589</v>
+        <v>975.3598567220583</v>
       </c>
       <c r="D17" t="n">
-        <v>905.1295663495403</v>
+        <v>738.2514567240098</v>
       </c>
       <c r="E17" t="n">
-        <v>640.498612359998</v>
+        <v>473.6205027344675</v>
       </c>
       <c r="F17" t="n">
-        <v>541.4694399924425</v>
+        <v>183.7918965535619</v>
       </c>
       <c r="G17" t="n">
-        <v>245.8729287445119</v>
+        <v>183.7918965535619</v>
       </c>
       <c r="H17" t="n">
         <v>52.22740191767247</v>
@@ -5516,49 +5516,49 @@
         <v>268.6486746501367</v>
       </c>
       <c r="K17" t="n">
-        <v>469.3480081788424</v>
+        <v>543.690506064409</v>
       </c>
       <c r="L17" t="n">
-        <v>1073.815743022554</v>
+        <v>734.673638503175</v>
       </c>
       <c r="M17" t="n">
-        <v>1317.990713814808</v>
+        <v>978.8486092954284</v>
       </c>
       <c r="N17" t="n">
-        <v>1570.730499290386</v>
+        <v>1231.588394771006</v>
       </c>
       <c r="O17" t="n">
-        <v>2173.042430061102</v>
+        <v>1833.900325541722</v>
       </c>
       <c r="P17" t="n">
-        <v>2330.846623997592</v>
+        <v>2310.285240567981</v>
       </c>
       <c r="Q17" t="n">
-        <v>2611.370095883623</v>
+        <v>2590.808712454011</v>
       </c>
       <c r="R17" t="n">
         <v>2611.370095883623</v>
       </c>
       <c r="S17" t="n">
-        <v>2611.370095883623</v>
+        <v>2583.922741818548</v>
       </c>
       <c r="T17" t="n">
-        <v>2519.189494782666</v>
+        <v>2583.922741818548</v>
       </c>
       <c r="U17" t="n">
-        <v>2386.681807889075</v>
+        <v>2451.415054924956</v>
       </c>
       <c r="V17" t="n">
-        <v>2176.776219154206</v>
+        <v>2241.509466190088</v>
       </c>
       <c r="W17" t="n">
-        <v>2176.776219154206</v>
+        <v>2009.898109528675</v>
       </c>
       <c r="X17" t="n">
-        <v>1924.467759501828</v>
+        <v>1757.589649876297</v>
       </c>
       <c r="Y17" t="n">
-        <v>1655.485726134718</v>
+        <v>1488.607616509188</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.5923291571879</v>
+        <v>957.5923291571876</v>
       </c>
       <c r="C18" t="n">
-        <v>783.1392998760609</v>
+        <v>783.1392998760606</v>
       </c>
       <c r="D18" t="n">
-        <v>634.2048902148097</v>
+        <v>634.2048902148092</v>
       </c>
       <c r="E18" t="n">
-        <v>474.9674352093542</v>
+        <v>474.9674352093537</v>
       </c>
       <c r="F18" t="n">
-        <v>328.4328772362392</v>
+        <v>328.4328772362387</v>
       </c>
       <c r="G18" t="n">
-        <v>191.1701703190658</v>
+        <v>191.1701703190656</v>
       </c>
       <c r="H18" t="n">
         <v>91.979968662895</v>
@@ -5598,16 +5598,16 @@
         <v>545.1418799509347</v>
       </c>
       <c r="L18" t="n">
-        <v>734.5426452451007</v>
+        <v>1087.529942602308</v>
       </c>
       <c r="M18" t="n">
-        <v>1380.856743976298</v>
+        <v>1311.402437452099</v>
       </c>
       <c r="N18" t="n">
-        <v>1625.063122527111</v>
+        <v>1555.608816002912</v>
       </c>
       <c r="O18" t="n">
-        <v>2216.168150197755</v>
+        <v>1900.890009244218</v>
       </c>
       <c r="P18" t="n">
         <v>2358.300839012287</v>
@@ -5631,7 +5631,7 @@
         <v>1795.656821875944</v>
       </c>
       <c r="W18" t="n">
-        <v>1541.419465147743</v>
+        <v>1541.419465147742</v>
       </c>
       <c r="X18" t="n">
         <v>1333.56796494221</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.5192215139037</v>
+        <v>260.5192215139036</v>
       </c>
       <c r="C19" t="n">
-        <v>212.7403371946988</v>
+        <v>212.7403371946986</v>
       </c>
       <c r="D19" t="n">
-        <v>183.780996391065</v>
+        <v>183.7809963910649</v>
       </c>
       <c r="E19" t="n">
         <v>157.0252014173738</v>
       </c>
       <c r="F19" t="n">
-        <v>131.2925525281654</v>
+        <v>131.2925525281653</v>
       </c>
       <c r="G19" t="n">
-        <v>83.9928144323105</v>
+        <v>83.99281443231047</v>
       </c>
       <c r="H19" t="n">
         <v>52.22740191767247</v>
@@ -5674,16 +5674,16 @@
         <v>52.22740191767247</v>
       </c>
       <c r="K19" t="n">
-        <v>170.3339726794271</v>
+        <v>170.3339726794269</v>
       </c>
       <c r="L19" t="n">
-        <v>376.996155188315</v>
+        <v>376.9961551883148</v>
       </c>
       <c r="M19" t="n">
-        <v>605.2815735623128</v>
+        <v>605.2815735623126</v>
       </c>
       <c r="N19" t="n">
-        <v>833.5734913522288</v>
+        <v>833.5734913522285</v>
       </c>
       <c r="O19" t="n">
         <v>1028.42173203435</v>
@@ -5695,28 +5695,28 @@
         <v>1187.340468887108</v>
       </c>
       <c r="R19" t="n">
-        <v>1184.755732143355</v>
+        <v>1184.755732143354</v>
       </c>
       <c r="S19" t="n">
         <v>1101.083496106412</v>
       </c>
       <c r="T19" t="n">
-        <v>997.2516880368255</v>
+        <v>997.2516880368254</v>
       </c>
       <c r="U19" t="n">
-        <v>829.2649815850286</v>
+        <v>829.2649815850284</v>
       </c>
       <c r="V19" t="n">
-        <v>695.7377919878437</v>
+        <v>695.7377919878435</v>
       </c>
       <c r="W19" t="n">
-        <v>527.4779205595851</v>
+        <v>527.4779205595848</v>
       </c>
       <c r="X19" t="n">
-        <v>420.6456682702697</v>
+        <v>420.6456682702695</v>
       </c>
       <c r="Y19" t="n">
-        <v>321.0103877354415</v>
+        <v>321.0103877354413</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.842618492649</v>
+        <v>1580.842618492648</v>
       </c>
       <c r="C20" t="n">
         <v>1333.037400160939</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.929000162891</v>
+        <v>1095.92900016289</v>
       </c>
       <c r="E20" t="n">
-        <v>831.2980461733482</v>
+        <v>831.298046173348</v>
       </c>
       <c r="F20" t="n">
-        <v>541.4694399924426</v>
+        <v>541.4694399924424</v>
       </c>
       <c r="G20" t="n">
         <v>245.8729287445119</v>
@@ -5753,25 +5753,25 @@
         <v>268.6486746501367</v>
       </c>
       <c r="K20" t="n">
-        <v>392.8489068508931</v>
+        <v>713.7528652963462</v>
       </c>
       <c r="L20" t="n">
-        <v>583.8320392896592</v>
+        <v>1132.227201382904</v>
       </c>
       <c r="M20" t="n">
-        <v>1230.146138020856</v>
+        <v>1376.402172175158</v>
       </c>
       <c r="N20" t="n">
-        <v>1482.885923496434</v>
+        <v>1629.141957650736</v>
       </c>
       <c r="O20" t="n">
-        <v>1833.900325541721</v>
+        <v>1854.461708971334</v>
       </c>
       <c r="P20" t="n">
-        <v>2310.28524056798</v>
+        <v>2330.846623997592</v>
       </c>
       <c r="Q20" t="n">
-        <v>2590.808712454011</v>
+        <v>2611.370095883623</v>
       </c>
       <c r="R20" t="n">
         <v>2611.370095883623</v>
@@ -5780,22 +5780,22 @@
         <v>2611.370095883623</v>
       </c>
       <c r="T20" t="n">
-        <v>2519.189494782666</v>
+        <v>2577.481241702425</v>
       </c>
       <c r="U20" t="n">
-        <v>2386.681807889075</v>
+        <v>2577.481241702425</v>
       </c>
       <c r="V20" t="n">
-        <v>2176.776219154207</v>
+        <v>2367.575652967555</v>
       </c>
       <c r="W20" t="n">
-        <v>2176.776219154207</v>
+        <v>2367.575652967555</v>
       </c>
       <c r="X20" t="n">
-        <v>2115.267193315179</v>
+        <v>2115.267193315178</v>
       </c>
       <c r="Y20" t="n">
-        <v>1846.285159948069</v>
+        <v>1846.285159948068</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.5923291571876</v>
+        <v>957.5923291571879</v>
       </c>
       <c r="C21" t="n">
-        <v>783.1392998760606</v>
+        <v>783.1392998760609</v>
       </c>
       <c r="D21" t="n">
-        <v>634.2048902148093</v>
+        <v>634.2048902148097</v>
       </c>
       <c r="E21" t="n">
-        <v>474.9674352093538</v>
+        <v>474.9674352093542</v>
       </c>
       <c r="F21" t="n">
-        <v>328.4328772362388</v>
+        <v>328.4328772362392</v>
       </c>
       <c r="G21" t="n">
         <v>191.1701703190658</v>
       </c>
       <c r="H21" t="n">
-        <v>91.97996866289498</v>
+        <v>91.979968662895</v>
       </c>
       <c r="I21" t="n">
         <v>52.22740191767247</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.5192215139039</v>
+        <v>260.5192215139036</v>
       </c>
       <c r="C22" t="n">
-        <v>212.7403371946989</v>
+        <v>212.7403371946986</v>
       </c>
       <c r="D22" t="n">
-        <v>183.7809963910651</v>
+        <v>183.7809963910649</v>
       </c>
       <c r="E22" t="n">
-        <v>157.0252014173739</v>
+        <v>157.0252014173737</v>
       </c>
       <c r="F22" t="n">
-        <v>131.2925525281655</v>
+        <v>131.2925525281653</v>
       </c>
       <c r="G22" t="n">
-        <v>83.9928144323105</v>
+        <v>83.99281443231047</v>
       </c>
       <c r="H22" t="n">
         <v>52.22740191767247</v>
@@ -5917,7 +5917,7 @@
         <v>376.9961551883148</v>
       </c>
       <c r="M22" t="n">
-        <v>605.2815735623125</v>
+        <v>605.2815735623126</v>
       </c>
       <c r="N22" t="n">
         <v>833.5734913522285</v>
@@ -5938,22 +5938,22 @@
         <v>1101.083496106412</v>
       </c>
       <c r="T22" t="n">
-        <v>997.2516880368254</v>
+        <v>997.2516880368253</v>
       </c>
       <c r="U22" t="n">
-        <v>829.2649815850289</v>
+        <v>829.2649815850284</v>
       </c>
       <c r="V22" t="n">
-        <v>695.7377919878438</v>
+        <v>695.7377919878435</v>
       </c>
       <c r="W22" t="n">
-        <v>527.4779205595852</v>
+        <v>527.4779205595848</v>
       </c>
       <c r="X22" t="n">
-        <v>420.6456682702698</v>
+        <v>420.6456682702695</v>
       </c>
       <c r="Y22" t="n">
-        <v>321.0103877354416</v>
+        <v>321.0103877354413</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>1590.023396952645</v>
       </c>
       <c r="C23" t="n">
-        <v>1342.218178620936</v>
+        <v>1342.218178620935</v>
       </c>
       <c r="D23" t="n">
-        <v>1105.109778622888</v>
+        <v>1105.109778622887</v>
       </c>
       <c r="E23" t="n">
-        <v>840.4788246333455</v>
+        <v>840.4788246333442</v>
       </c>
       <c r="F23" t="n">
-        <v>550.6502184524402</v>
+        <v>550.6502184524388</v>
       </c>
       <c r="G23" t="n">
-        <v>255.0537072045087</v>
+        <v>255.0537072045086</v>
       </c>
       <c r="H23" t="n">
-        <v>61.40818037766919</v>
+        <v>61.40818037766916</v>
       </c>
       <c r="I23" t="n">
-        <v>61.40818037766919</v>
+        <v>61.40818037766916</v>
       </c>
       <c r="J23" t="n">
-        <v>110.4238040897804</v>
+        <v>277.8294531101334</v>
       </c>
       <c r="K23" t="n">
-        <v>555.5279947359899</v>
+        <v>722.9336437563428</v>
       </c>
       <c r="L23" t="n">
-        <v>1159.995729579702</v>
+        <v>1327.401378600055</v>
       </c>
       <c r="M23" t="n">
-        <v>1404.170700371955</v>
+        <v>2016.594747550213</v>
       </c>
       <c r="N23" t="n">
-        <v>1711.188701200454</v>
+        <v>2269.33453302579</v>
       </c>
       <c r="O23" t="n">
-        <v>2313.50063197117</v>
+        <v>2494.654284346389</v>
       </c>
       <c r="P23" t="n">
-        <v>2789.885546997429</v>
+        <v>2971.039199372647</v>
       </c>
       <c r="Q23" t="n">
-        <v>3070.409018883459</v>
+        <v>3070.409018883458</v>
       </c>
       <c r="R23" t="n">
-        <v>3070.409018883459</v>
+        <v>3070.409018883458</v>
       </c>
       <c r="S23" t="n">
-        <v>3042.961664818384</v>
+        <v>3042.961664818383</v>
       </c>
       <c r="T23" t="n">
-        <v>2950.781063717427</v>
+        <v>2950.781063717426</v>
       </c>
       <c r="U23" t="n">
-        <v>2818.273376823835</v>
+        <v>2818.273376823833</v>
       </c>
       <c r="V23" t="n">
-        <v>2608.367788088966</v>
+        <v>2608.367788088965</v>
       </c>
       <c r="W23" t="n">
-        <v>2376.756431427553</v>
+        <v>2376.756431427552</v>
       </c>
       <c r="X23" t="n">
-        <v>2124.447971775176</v>
+        <v>2124.447971775175</v>
       </c>
       <c r="Y23" t="n">
         <v>1855.465938408065</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.7731076171848</v>
+        <v>966.7731076171846</v>
       </c>
       <c r="C24" t="n">
-        <v>792.3200783360578</v>
+        <v>792.3200783360576</v>
       </c>
       <c r="D24" t="n">
-        <v>643.3856686748065</v>
+        <v>643.3856686748063</v>
       </c>
       <c r="E24" t="n">
-        <v>484.148213669351</v>
+        <v>484.1482136693509</v>
       </c>
       <c r="F24" t="n">
-        <v>337.6136556962359</v>
+        <v>337.6136556962358</v>
       </c>
       <c r="G24" t="n">
         <v>200.3509487790625</v>
@@ -6063,7 +6063,7 @@
         <v>101.1607471228917</v>
       </c>
       <c r="I24" t="n">
-        <v>61.40818037766919</v>
+        <v>61.40818037766916</v>
       </c>
       <c r="J24" t="n">
         <v>196.613828099976</v>
@@ -6087,7 +6087,7 @@
         <v>2367.481617472284</v>
       </c>
       <c r="Q24" t="n">
-        <v>2620.550874343621</v>
+        <v>2620.55087434362</v>
       </c>
       <c r="R24" t="n">
         <v>2610.533474234178</v>
@@ -6096,10 +6096,10 @@
         <v>2464.385786914646</v>
       </c>
       <c r="T24" t="n">
-        <v>2268.11674008786</v>
+        <v>2268.116740087859</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.989708567684</v>
+        <v>2039.989708567683</v>
       </c>
       <c r="V24" t="n">
         <v>1804.837600335941</v>
@@ -6108,7 +6108,7 @@
         <v>1550.600243607739</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.748743402207</v>
+        <v>1342.748743402206</v>
       </c>
       <c r="Y24" t="n">
         <v>1134.988444637253</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>269.6999999739005</v>
+        <v>269.6999999739004</v>
       </c>
       <c r="C25" t="n">
         <v>221.9211156546955</v>
       </c>
       <c r="D25" t="n">
-        <v>192.9617748510617</v>
+        <v>192.9617748510618</v>
       </c>
       <c r="E25" t="n">
         <v>166.2059798773706</v>
@@ -6136,31 +6136,31 @@
         <v>140.4733309881622</v>
       </c>
       <c r="G25" t="n">
-        <v>93.17359289230723</v>
+        <v>93.17359289230735</v>
       </c>
       <c r="H25" t="n">
-        <v>61.40818037766919</v>
+        <v>61.40818037766916</v>
       </c>
       <c r="I25" t="n">
-        <v>61.40818037766919</v>
+        <v>61.40818037766916</v>
       </c>
       <c r="J25" t="n">
-        <v>61.40818037766919</v>
+        <v>61.40818037766916</v>
       </c>
       <c r="K25" t="n">
         <v>179.5147511394236</v>
       </c>
       <c r="L25" t="n">
-        <v>386.1769336483117</v>
+        <v>386.1769336483115</v>
       </c>
       <c r="M25" t="n">
-        <v>614.4623520223095</v>
+        <v>614.4623520223092</v>
       </c>
       <c r="N25" t="n">
-        <v>842.7542698122254</v>
+        <v>842.7542698122252</v>
       </c>
       <c r="O25" t="n">
-        <v>1037.602510494347</v>
+        <v>1037.602510494346</v>
       </c>
       <c r="P25" t="n">
         <v>1180.808159242758</v>
@@ -6178,19 +6178,19 @@
         <v>1006.432466496822</v>
       </c>
       <c r="U25" t="n">
-        <v>838.4457600450254</v>
+        <v>838.4457600450253</v>
       </c>
       <c r="V25" t="n">
-        <v>704.9185704478405</v>
+        <v>704.9185704478404</v>
       </c>
       <c r="W25" t="n">
-        <v>536.6586990195818</v>
+        <v>536.6586990195817</v>
       </c>
       <c r="X25" t="n">
         <v>429.8264467302664</v>
       </c>
       <c r="Y25" t="n">
-        <v>330.1911661954383</v>
+        <v>330.1911661954382</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1886.02610241923</v>
+        <v>1886.026102419232</v>
       </c>
       <c r="C26" t="n">
-        <v>1595.703784742776</v>
+        <v>1595.703784742778</v>
       </c>
       <c r="D26" t="n">
-        <v>1316.078285399984</v>
+        <v>1316.078285399985</v>
       </c>
       <c r="E26" t="n">
-        <v>1008.930232065697</v>
+        <v>1008.930232065698</v>
       </c>
       <c r="F26" t="n">
-        <v>676.5845265400468</v>
+        <v>676.5845265400475</v>
       </c>
       <c r="G26" t="n">
-        <v>338.4709159473719</v>
+        <v>338.4709159473722</v>
       </c>
       <c r="H26" t="n">
-        <v>102.308289775788</v>
+        <v>102.3082897757882</v>
       </c>
       <c r="I26" t="n">
-        <v>74.13097038215997</v>
+        <v>74.13097038216002</v>
       </c>
       <c r="J26" t="n">
-        <v>223.1922413573135</v>
+        <v>290.5522431146243</v>
       </c>
       <c r="K26" t="n">
-        <v>347.3924735580698</v>
+        <v>735.6564337608337</v>
       </c>
       <c r="L26" t="n">
-        <v>951.8602084017818</v>
+        <v>1340.124168604546</v>
       </c>
       <c r="M26" t="n">
-        <v>1641.05357735194</v>
+        <v>2029.317537554703</v>
       </c>
       <c r="N26" t="n">
-        <v>2326.766817995382</v>
+        <v>2326.766817995383</v>
       </c>
       <c r="O26" t="n">
-        <v>2929.078748766097</v>
+        <v>2929.078748766099</v>
       </c>
       <c r="P26" t="n">
-        <v>3405.463663792356</v>
+        <v>3405.463663792358</v>
       </c>
       <c r="Q26" t="n">
-        <v>3685.987135678386</v>
+        <v>3685.987135678388</v>
       </c>
       <c r="R26" t="n">
-        <v>3706.548519107999</v>
+        <v>3706.548519108001</v>
       </c>
       <c r="S26" t="n">
-        <v>3636.584065698179</v>
+        <v>3636.584065698181</v>
       </c>
       <c r="T26" t="n">
-        <v>3501.886365252477</v>
+        <v>3501.886365252479</v>
       </c>
       <c r="U26" t="n">
-        <v>3326.861579014141</v>
+        <v>3326.861579014143</v>
       </c>
       <c r="V26" t="n">
-        <v>3074.438890934528</v>
+        <v>3074.43889093453</v>
       </c>
       <c r="W26" t="n">
-        <v>2800.310434928371</v>
+        <v>2800.310434928373</v>
       </c>
       <c r="X26" t="n">
-        <v>2505.484875931249</v>
+        <v>2505.484875931251</v>
       </c>
       <c r="Y26" t="n">
-        <v>2193.985743219395</v>
+        <v>2193.985743219397</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>350.3364457007267</v>
       </c>
       <c r="G27" t="n">
-        <v>213.0737387835533</v>
+        <v>213.0737387835534</v>
       </c>
       <c r="H27" t="n">
         <v>113.8835371273825</v>
       </c>
       <c r="I27" t="n">
-        <v>74.13097038215997</v>
+        <v>74.13097038216002</v>
       </c>
       <c r="J27" t="n">
-        <v>84.50649311746204</v>
+        <v>84.50649311746209</v>
       </c>
       <c r="K27" t="n">
-        <v>180.3947387859647</v>
+        <v>442.2153234284175</v>
       </c>
       <c r="L27" t="n">
-        <v>722.7828014373383</v>
+        <v>984.6033860797911</v>
       </c>
       <c r="M27" t="n">
-        <v>1407.703309399629</v>
+        <v>1208.475880929582</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.909687950442</v>
+        <v>1452.682259480395</v>
       </c>
       <c r="O27" t="n">
-        <v>2243.014715621087</v>
+        <v>2043.78728715104</v>
       </c>
       <c r="P27" t="n">
-        <v>2588.180922335265</v>
+        <v>2501.198116919109</v>
       </c>
       <c r="Q27" t="n">
         <v>2633.273664348111</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>510.6419690237331</v>
+        <v>578.8917172576871</v>
       </c>
       <c r="C28" t="n">
-        <v>420.3459853597837</v>
+        <v>488.5957335937375</v>
       </c>
       <c r="D28" t="n">
-        <v>348.8695452114055</v>
+        <v>417.1192934453592</v>
       </c>
       <c r="E28" t="n">
-        <v>279.5966508929699</v>
+        <v>347.8463991269234</v>
       </c>
       <c r="F28" t="n">
-        <v>279.5966508929699</v>
+        <v>279.5966508929704</v>
       </c>
       <c r="G28" t="n">
-        <v>189.7798134523705</v>
+        <v>189.7798134523709</v>
       </c>
       <c r="H28" t="n">
-        <v>115.4973015929881</v>
+        <v>115.4973015929884</v>
       </c>
       <c r="I28" t="n">
-        <v>74.13097038215997</v>
+        <v>74.13097038216002</v>
       </c>
       <c r="J28" t="n">
-        <v>144.0680232404355</v>
+        <v>144.0680232404351</v>
       </c>
       <c r="K28" t="n">
-        <v>339.2498533007947</v>
+        <v>339.2498533007941</v>
       </c>
       <c r="L28" t="n">
-        <v>622.9872951082874</v>
+        <v>622.9872951082867</v>
       </c>
       <c r="M28" t="n">
-        <v>928.34797278089</v>
+        <v>928.3479727808891</v>
       </c>
       <c r="N28" t="n">
-        <v>1233.715149869411</v>
+        <v>1233.71514986941</v>
       </c>
       <c r="O28" t="n">
-        <v>1505.638649850137</v>
+        <v>1505.638649850136</v>
       </c>
       <c r="P28" t="n">
-        <v>1725.919557897153</v>
+        <v>1725.919557897151</v>
       </c>
       <c r="Q28" t="n">
-        <v>1818.707905300105</v>
+        <v>1818.707905300103</v>
       </c>
       <c r="R28" t="n">
-        <v>1773.606069211607</v>
+        <v>1773.606069211605</v>
       </c>
       <c r="S28" t="n">
-        <v>1647.41673382992</v>
+        <v>1717.075687263408</v>
       </c>
       <c r="T28" t="n">
-        <v>1501.067826415589</v>
+        <v>1570.726779849076</v>
       </c>
       <c r="U28" t="n">
-        <v>1290.564020619048</v>
+        <v>1360.222974052535</v>
       </c>
       <c r="V28" t="n">
-        <v>1114.519731677118</v>
+        <v>1184.178685110605</v>
       </c>
       <c r="W28" t="n">
-        <v>903.7427609041151</v>
+        <v>973.401714337602</v>
       </c>
       <c r="X28" t="n">
-        <v>754.3934092700553</v>
+        <v>824.052362703542</v>
       </c>
       <c r="Y28" t="n">
-        <v>612.2410293904828</v>
+        <v>681.8999828239695</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1886.02610241923</v>
+        <v>1886.026102419232</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.703784742776</v>
+        <v>1595.703784742778</v>
       </c>
       <c r="D29" t="n">
-        <v>1316.078285399983</v>
+        <v>1316.078285399985</v>
       </c>
       <c r="E29" t="n">
-        <v>1008.930232065697</v>
+        <v>1008.930232065698</v>
       </c>
       <c r="F29" t="n">
-        <v>676.5845265400465</v>
+        <v>676.5845265400478</v>
       </c>
       <c r="G29" t="n">
-        <v>338.4709159473719</v>
+        <v>338.4709159473726</v>
       </c>
       <c r="H29" t="n">
-        <v>102.3082897757881</v>
+        <v>102.3082897757883</v>
       </c>
       <c r="I29" t="n">
-        <v>74.13097038215997</v>
+        <v>74.13097038216004</v>
       </c>
       <c r="J29" t="n">
-        <v>133.041507094778</v>
+        <v>123.1465940942713</v>
       </c>
       <c r="K29" t="n">
-        <v>578.1456977409874</v>
+        <v>568.2507847404806</v>
       </c>
       <c r="L29" t="n">
-        <v>1182.613432584699</v>
+        <v>1172.718519584193</v>
       </c>
       <c r="M29" t="n">
-        <v>1871.806801534857</v>
+        <v>1861.91188853435</v>
       </c>
       <c r="N29" t="n">
-        <v>2557.520042178299</v>
+        <v>2547.625129177792</v>
       </c>
       <c r="O29" t="n">
-        <v>3159.831972949015</v>
+        <v>3149.937059948508</v>
       </c>
       <c r="P29" t="n">
-        <v>3636.216887975273</v>
+        <v>3615.655504545664</v>
       </c>
       <c r="Q29" t="n">
-        <v>3706.548519107999</v>
+        <v>3685.98713567839</v>
       </c>
       <c r="R29" t="n">
-        <v>3706.548519107999</v>
+        <v>3706.548519108002</v>
       </c>
       <c r="S29" t="n">
-        <v>3636.584065698179</v>
+        <v>3636.584065698182</v>
       </c>
       <c r="T29" t="n">
-        <v>3501.886365252477</v>
+        <v>3501.886365252481</v>
       </c>
       <c r="U29" t="n">
-        <v>3326.861579014141</v>
+        <v>3326.861579014144</v>
       </c>
       <c r="V29" t="n">
-        <v>3074.438890934528</v>
+        <v>3074.43889093453</v>
       </c>
       <c r="W29" t="n">
-        <v>2800.310434928371</v>
+        <v>2800.310434928374</v>
       </c>
       <c r="X29" t="n">
-        <v>2505.484875931249</v>
+        <v>2505.484875931251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2193.985743219395</v>
+        <v>2193.985743219396</v>
       </c>
     </row>
     <row r="30">
@@ -6531,28 +6531,28 @@
         <v>350.3364457007267</v>
       </c>
       <c r="G30" t="n">
-        <v>213.0737387835533</v>
+        <v>213.0737387835534</v>
       </c>
       <c r="H30" t="n">
-        <v>113.8835371273825</v>
+        <v>113.8835371273826</v>
       </c>
       <c r="I30" t="n">
-        <v>74.13097038215997</v>
+        <v>74.13097038216004</v>
       </c>
       <c r="J30" t="n">
-        <v>209.3366181044668</v>
+        <v>209.3366181044669</v>
       </c>
       <c r="K30" t="n">
-        <v>567.0454484154222</v>
+        <v>305.2248637729696</v>
       </c>
       <c r="L30" t="n">
-        <v>1109.433511066796</v>
+        <v>847.6129264243432</v>
       </c>
       <c r="M30" t="n">
-        <v>1477.40586757121</v>
+        <v>1087.482171487248</v>
       </c>
       <c r="N30" t="n">
-        <v>1721.612246122023</v>
+        <v>1331.688550038061</v>
       </c>
       <c r="O30" t="n">
         <v>1922.793577708706</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>578.8917172576862</v>
+        <v>578.8917172576871</v>
       </c>
       <c r="C31" t="n">
-        <v>488.5957335937368</v>
+        <v>488.5957335937376</v>
       </c>
       <c r="D31" t="n">
-        <v>417.1192934453586</v>
+        <v>417.1192934453592</v>
       </c>
       <c r="E31" t="n">
-        <v>347.8463991269229</v>
+        <v>347.8463991269235</v>
       </c>
       <c r="F31" t="n">
-        <v>279.59665089297</v>
+        <v>279.5966508929705</v>
       </c>
       <c r="G31" t="n">
-        <v>189.7798134523707</v>
+        <v>189.779813452371</v>
       </c>
       <c r="H31" t="n">
-        <v>115.4973015929882</v>
+        <v>115.4973015929884</v>
       </c>
       <c r="I31" t="n">
-        <v>74.13097038215997</v>
+        <v>74.13097038216004</v>
       </c>
       <c r="J31" t="n">
-        <v>144.0680232404352</v>
+        <v>144.0680232404351</v>
       </c>
       <c r="K31" t="n">
-        <v>339.2498533007943</v>
+        <v>339.2498533007941</v>
       </c>
       <c r="L31" t="n">
-        <v>622.987295108287</v>
+        <v>622.9872951082866</v>
       </c>
       <c r="M31" t="n">
-        <v>928.3479727808894</v>
+        <v>928.3479727808891</v>
       </c>
       <c r="N31" t="n">
         <v>1233.71514986941</v>
       </c>
       <c r="O31" t="n">
-        <v>1505.638649850136</v>
+        <v>1505.638649850135</v>
       </c>
       <c r="P31" t="n">
-        <v>1725.919557897152</v>
+        <v>1725.919557897151</v>
       </c>
       <c r="Q31" t="n">
-        <v>1818.707905300104</v>
+        <v>1818.707905300103</v>
       </c>
       <c r="R31" t="n">
-        <v>1773.606069211606</v>
+        <v>1773.606069211605</v>
       </c>
       <c r="S31" t="n">
-        <v>1717.075687263407</v>
+        <v>1647.416733829918</v>
       </c>
       <c r="T31" t="n">
-        <v>1570.726779849075</v>
+        <v>1570.726779849076</v>
       </c>
       <c r="U31" t="n">
-        <v>1360.222974052534</v>
+        <v>1360.222974052535</v>
       </c>
       <c r="V31" t="n">
-        <v>1184.178685110604</v>
+        <v>1184.178685110605</v>
       </c>
       <c r="W31" t="n">
-        <v>973.401714337601</v>
+        <v>973.4017143376021</v>
       </c>
       <c r="X31" t="n">
-        <v>824.0523627035411</v>
+        <v>824.0523627035421</v>
       </c>
       <c r="Y31" t="n">
-        <v>681.8999828239685</v>
+        <v>681.8999828239695</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1872.897439083056</v>
+        <v>1872.897439083057</v>
       </c>
       <c r="C32" t="n">
         <v>1584.372061360436</v>
       </c>
       <c r="D32" t="n">
-        <v>1306.543501971477</v>
+        <v>1306.543501971478</v>
       </c>
       <c r="E32" t="n">
-        <v>1001.192388591024</v>
+        <v>1001.192388591025</v>
       </c>
       <c r="F32" t="n">
-        <v>670.643623019208</v>
+        <v>670.6436230192089</v>
       </c>
       <c r="G32" t="n">
-        <v>334.3269523803669</v>
+        <v>334.3269523803676</v>
       </c>
       <c r="H32" t="n">
-        <v>99.96126616261722</v>
+        <v>99.96126616261745</v>
       </c>
       <c r="I32" t="n">
-        <v>73.58088672282307</v>
+        <v>73.58088672282312</v>
       </c>
       <c r="J32" t="n">
-        <v>193.3648210347816</v>
+        <v>122.5965104349343</v>
       </c>
       <c r="K32" t="n">
-        <v>638.469011680991</v>
+        <v>530.0801313445321</v>
       </c>
       <c r="L32" t="n">
-        <v>1242.936746524703</v>
+        <v>1134.547866188244</v>
       </c>
       <c r="M32" t="n">
-        <v>1932.130115474861</v>
+        <v>1823.741235138402</v>
       </c>
       <c r="N32" t="n">
-        <v>2617.843356118303</v>
+        <v>2509.454475781844</v>
       </c>
       <c r="O32" t="n">
-        <v>3220.155286889019</v>
+        <v>3111.76640655256</v>
       </c>
       <c r="P32" t="n">
-        <v>3377.95948082551</v>
+        <v>3588.151321578819</v>
       </c>
       <c r="Q32" t="n">
-        <v>3658.482952711541</v>
+        <v>3658.482952711544</v>
       </c>
       <c r="R32" t="n">
-        <v>3679.044336141153</v>
+        <v>3679.044336141156</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.876822685168</v>
+        <v>3610.876822685171</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.9760621933</v>
+        <v>3477.976062193303</v>
       </c>
       <c r="U32" t="n">
-        <v>3304.748215908797</v>
+        <v>3304.7482159088</v>
       </c>
       <c r="V32" t="n">
-        <v>3054.122467783018</v>
+        <v>3054.12246778302</v>
       </c>
       <c r="W32" t="n">
-        <v>2781.790951730695</v>
+        <v>2781.790951730697</v>
       </c>
       <c r="X32" t="n">
-        <v>2488.762332687407</v>
+        <v>2488.762332687408</v>
       </c>
       <c r="Y32" t="n">
-        <v>2179.060139929386</v>
+        <v>2179.060139929387</v>
       </c>
     </row>
     <row r="33">
@@ -6768,19 +6768,19 @@
         <v>349.7863620413898</v>
       </c>
       <c r="G33" t="n">
-        <v>212.5236551242164</v>
+        <v>212.5236551242165</v>
       </c>
       <c r="H33" t="n">
-        <v>113.3334534680456</v>
+        <v>113.3334534680457</v>
       </c>
       <c r="I33" t="n">
-        <v>73.58088672282307</v>
+        <v>73.58088672282312</v>
       </c>
       <c r="J33" t="n">
         <v>208.7865344451299</v>
       </c>
       <c r="K33" t="n">
-        <v>566.4953647560853</v>
+        <v>566.4953647560855</v>
       </c>
       <c r="L33" t="n">
         <v>1108.883427407459</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>538.9445865393885</v>
+        <v>538.9445865393868</v>
       </c>
       <c r="C34" t="n">
-        <v>450.445542829273</v>
+        <v>450.4455428292711</v>
       </c>
       <c r="D34" t="n">
-        <v>380.7660426347287</v>
+        <v>380.7660426347267</v>
       </c>
       <c r="E34" t="n">
-        <v>313.2900882701271</v>
+        <v>313.2900882701248</v>
       </c>
       <c r="F34" t="n">
-        <v>246.8372799900081</v>
+        <v>273.6557473721319</v>
       </c>
       <c r="G34" t="n">
-        <v>158.8173825032427</v>
+        <v>185.6358498853663</v>
       </c>
       <c r="H34" t="n">
-        <v>113.1502779798174</v>
+        <v>113.1502779798176</v>
       </c>
       <c r="I34" t="n">
-        <v>73.58088672282307</v>
+        <v>73.58088672282312</v>
       </c>
       <c r="J34" t="n">
-        <v>145.279120429851</v>
+        <v>145.2791204298508</v>
       </c>
       <c r="K34" t="n">
-        <v>342.2221313389628</v>
+        <v>342.2221313389624</v>
       </c>
       <c r="L34" t="n">
-        <v>627.720753995208</v>
+        <v>627.7207539952076</v>
       </c>
       <c r="M34" t="n">
-        <v>934.8426125165631</v>
+        <v>934.8426125165627</v>
       </c>
       <c r="N34" t="n">
-        <v>1241.970970453837</v>
+        <v>1241.970970453836</v>
       </c>
       <c r="O34" t="n">
-        <v>1515.655651283315</v>
+        <v>1515.655651283314</v>
       </c>
       <c r="P34" t="n">
-        <v>1737.697740179084</v>
+        <v>1737.697740179083</v>
       </c>
       <c r="Q34" t="n">
-        <v>1832.247268430788</v>
+        <v>1832.247268430787</v>
       </c>
       <c r="R34" t="n">
-        <v>1788.942372296124</v>
+        <v>1788.942372296123</v>
       </c>
       <c r="S34" t="n">
-        <v>1664.549976868271</v>
+        <v>1664.54997686827</v>
       </c>
       <c r="T34" t="n">
-        <v>1519.998009407774</v>
+        <v>1519.998009407772</v>
       </c>
       <c r="U34" t="n">
-        <v>1311.291143565066</v>
+        <v>1311.291143565065</v>
       </c>
       <c r="V34" t="n">
-        <v>1137.043794576971</v>
+        <v>1137.043794576969</v>
       </c>
       <c r="W34" t="n">
-        <v>928.0637637578013</v>
+        <v>928.0637637577997</v>
       </c>
       <c r="X34" t="n">
-        <v>780.5113520775755</v>
+        <v>780.5113520775736</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.1559121518368</v>
+        <v>640.1559121518353</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1577.278317056318</v>
       </c>
       <c r="D35" t="n">
-        <v>1300.574655631442</v>
+        <v>1300.574655631443</v>
       </c>
       <c r="E35" t="n">
-        <v>996.3484402150727</v>
+        <v>996.3484402150733</v>
       </c>
       <c r="F35" t="n">
-        <v>666.92457260734</v>
+        <v>666.9245726073407</v>
       </c>
       <c r="G35" t="n">
-        <v>331.7327999325828</v>
+        <v>331.732799932583</v>
       </c>
       <c r="H35" t="n">
-        <v>98.49201167891643</v>
+        <v>98.49201167891634</v>
       </c>
       <c r="I35" t="n">
         <v>73.23653020320567</v>
@@ -6953,19 +6953,19 @@
         <v>3316.448268789906</v>
       </c>
       <c r="P35" t="n">
-        <v>3591.494879027558</v>
+        <v>3474.252462726397</v>
       </c>
       <c r="Q35" t="n">
-        <v>3661.826510160284</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="R35" t="n">
-        <v>3661.826510160284</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="S35" t="n">
-        <v>3594.783894668382</v>
+        <v>3594.783894668381</v>
       </c>
       <c r="T35" t="n">
-        <v>3463.008032140598</v>
+        <v>3463.008032140597</v>
       </c>
       <c r="U35" t="n">
         <v>3290.905083820178</v>
@@ -7014,25 +7014,25 @@
         <v>73.23653020320567</v>
       </c>
       <c r="J36" t="n">
-        <v>208.4421779255125</v>
+        <v>83.61205293850772</v>
       </c>
       <c r="K36" t="n">
-        <v>566.1510082364679</v>
+        <v>441.3208832494631</v>
       </c>
       <c r="L36" t="n">
-        <v>1108.539070887841</v>
+        <v>983.7089459008366</v>
       </c>
       <c r="M36" t="n">
-        <v>1476.511427392256</v>
+        <v>1207.581440750628</v>
       </c>
       <c r="N36" t="n">
-        <v>1720.717805943069</v>
+        <v>1451.787819301441</v>
       </c>
       <c r="O36" t="n">
-        <v>1921.899137529752</v>
+        <v>2042.892846972085</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.309967297821</v>
+        <v>2500.303676740154</v>
       </c>
       <c r="Q36" t="n">
         <v>2632.379224169157</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.5444116533104</v>
+        <v>557.5444116533098</v>
       </c>
       <c r="C37" t="n">
-        <v>470.1702659072783</v>
+        <v>470.1702659072778</v>
       </c>
       <c r="D37" t="n">
-        <v>401.6156636768175</v>
+        <v>401.615663676817</v>
       </c>
       <c r="E37" t="n">
-        <v>335.2646072762992</v>
+        <v>335.2646072762988</v>
       </c>
       <c r="F37" t="n">
-        <v>269.9366969602637</v>
+        <v>269.9366969602634</v>
       </c>
       <c r="G37" t="n">
-        <v>183.0416974375817</v>
+        <v>183.0416974375815</v>
       </c>
       <c r="H37" t="n">
-        <v>111.6810234961166</v>
+        <v>111.6810234961165</v>
       </c>
       <c r="I37" t="n">
         <v>73.23653020320567</v>
       </c>
       <c r="J37" t="n">
-        <v>146.0372764048317</v>
+        <v>146.0372764048318</v>
       </c>
       <c r="K37" t="n">
-        <v>344.0827998085416</v>
+        <v>344.0827998085418</v>
       </c>
       <c r="L37" t="n">
-        <v>630.6839349593851</v>
+        <v>630.6839349593854</v>
       </c>
       <c r="M37" t="n">
-        <v>938.9083059753384</v>
+        <v>938.9083059753389</v>
       </c>
       <c r="N37" t="n">
         <v>1247.13917640721</v>
@@ -7111,34 +7111,34 @@
         <v>1521.926369731287</v>
       </c>
       <c r="P37" t="n">
-        <v>1745.070971121656</v>
+        <v>1745.070971121654</v>
       </c>
       <c r="Q37" t="n">
-        <v>1840.723011867959</v>
+        <v>1840.723011867957</v>
       </c>
       <c r="R37" t="n">
-        <v>1798.543013697378</v>
+        <v>1798.543013697376</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.275516233608</v>
+        <v>1675.275516233607</v>
       </c>
       <c r="T37" t="n">
-        <v>1531.848446737195</v>
+        <v>1531.848446737193</v>
       </c>
       <c r="U37" t="n">
-        <v>1324.266478858571</v>
+        <v>1324.26647885857</v>
       </c>
       <c r="V37" t="n">
-        <v>1151.144027834559</v>
+        <v>1151.144027834558</v>
       </c>
       <c r="W37" t="n">
-        <v>943.288894979473</v>
+        <v>943.288894979472</v>
       </c>
       <c r="X37" t="n">
-        <v>796.8613812633305</v>
+        <v>796.8613812633297</v>
       </c>
       <c r="Y37" t="n">
-        <v>657.6308393016752</v>
+        <v>657.6308393016745</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1864.678796814855</v>
+        <v>1864.678796814854</v>
       </c>
       <c r="C38" t="n">
         <v>1577.278317056318</v>
       </c>
       <c r="D38" t="n">
-        <v>1300.574655631443</v>
+        <v>1300.574655631442</v>
       </c>
       <c r="E38" t="n">
-        <v>996.3484402150732</v>
+        <v>996.348440215073</v>
       </c>
       <c r="F38" t="n">
-        <v>666.9245726073406</v>
+        <v>666.9245726073407</v>
       </c>
       <c r="G38" t="n">
-        <v>331.7327999325828</v>
+        <v>331.732799932583</v>
       </c>
       <c r="H38" t="n">
-        <v>98.49201167891643</v>
+        <v>98.49201167891634</v>
       </c>
       <c r="I38" t="n">
         <v>73.23653020320567</v>
@@ -7187,16 +7187,16 @@
         <v>2302.606192477278</v>
       </c>
       <c r="O38" t="n">
-        <v>2904.918123247995</v>
+        <v>2904.918123247994</v>
       </c>
       <c r="P38" t="n">
         <v>3381.303038274253</v>
       </c>
       <c r="Q38" t="n">
-        <v>3661.826510160284</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="R38" t="n">
-        <v>3661.826510160284</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="S38" t="n">
         <v>3594.783894668381</v>
@@ -7205,19 +7205,19 @@
         <v>3463.008032140597</v>
       </c>
       <c r="U38" t="n">
-        <v>3290.905083820179</v>
+        <v>3290.905083820178</v>
       </c>
       <c r="V38" t="n">
         <v>3041.404233658483</v>
       </c>
       <c r="W38" t="n">
-        <v>2770.197615570244</v>
+        <v>2770.197615570243</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.293894491039</v>
+        <v>2478.293894491038</v>
       </c>
       <c r="Y38" t="n">
-        <v>2169.716599697102</v>
+        <v>2169.716599697101</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>73.23653020320567</v>
       </c>
       <c r="J39" t="n">
-        <v>208.4421779255125</v>
+        <v>83.61205293850772</v>
       </c>
       <c r="K39" t="n">
-        <v>566.1510082364679</v>
+        <v>441.3208832494631</v>
       </c>
       <c r="L39" t="n">
-        <v>1108.539070887841</v>
+        <v>983.7089459008366</v>
       </c>
       <c r="M39" t="n">
-        <v>1476.511427392256</v>
+        <v>1207.581440750628</v>
       </c>
       <c r="N39" t="n">
-        <v>1720.717805943069</v>
+        <v>1451.787819301441</v>
       </c>
       <c r="O39" t="n">
-        <v>1921.899137529752</v>
+        <v>2042.892846972085</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.309967297821</v>
+        <v>2500.303676740154</v>
       </c>
       <c r="Q39" t="n">
         <v>2632.379224169157</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.5444116533104</v>
+        <v>557.5444116533098</v>
       </c>
       <c r="C40" t="n">
-        <v>470.1702659072783</v>
+        <v>470.1702659072778</v>
       </c>
       <c r="D40" t="n">
-        <v>401.6156636768175</v>
+        <v>401.615663676817</v>
       </c>
       <c r="E40" t="n">
-        <v>335.2646072762992</v>
+        <v>335.2646072762988</v>
       </c>
       <c r="F40" t="n">
-        <v>269.9366969602637</v>
+        <v>269.9366969602634</v>
       </c>
       <c r="G40" t="n">
-        <v>183.0416974375817</v>
+        <v>183.0416974375815</v>
       </c>
       <c r="H40" t="n">
-        <v>111.6810234961166</v>
+        <v>111.6810234961165</v>
       </c>
       <c r="I40" t="n">
         <v>73.23653020320567</v>
       </c>
       <c r="J40" t="n">
-        <v>146.0372764048317</v>
+        <v>146.0372764048321</v>
       </c>
       <c r="K40" t="n">
-        <v>344.0827998085416</v>
+        <v>344.0827998085421</v>
       </c>
       <c r="L40" t="n">
-        <v>630.6839349593851</v>
+        <v>630.6839349593856</v>
       </c>
       <c r="M40" t="n">
-        <v>938.9083059753384</v>
+        <v>938.908305975339</v>
       </c>
       <c r="N40" t="n">
         <v>1247.13917640721</v>
       </c>
       <c r="O40" t="n">
-        <v>1521.926369731289</v>
+        <v>1521.926369731287</v>
       </c>
       <c r="P40" t="n">
-        <v>1745.070971121656</v>
+        <v>1745.070971121654</v>
       </c>
       <c r="Q40" t="n">
-        <v>1840.723011867959</v>
+        <v>1840.723011867957</v>
       </c>
       <c r="R40" t="n">
-        <v>1798.543013697378</v>
+        <v>1798.543013697376</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.275516233608</v>
+        <v>1675.275516233607</v>
       </c>
       <c r="T40" t="n">
-        <v>1531.848446737195</v>
+        <v>1531.848446737193</v>
       </c>
       <c r="U40" t="n">
-        <v>1324.266478858571</v>
+        <v>1324.26647885857</v>
       </c>
       <c r="V40" t="n">
-        <v>1151.144027834559</v>
+        <v>1151.144027834558</v>
       </c>
       <c r="W40" t="n">
-        <v>943.288894979473</v>
+        <v>943.288894979472</v>
       </c>
       <c r="X40" t="n">
-        <v>796.8613812633305</v>
+        <v>796.8613812633297</v>
       </c>
       <c r="Y40" t="n">
-        <v>657.6308393016752</v>
+        <v>657.6308393016745</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1864.678796814854</v>
+        <v>1864.678796814855</v>
       </c>
       <c r="C41" t="n">
         <v>1577.278317056318</v>
@@ -7397,43 +7397,43 @@
         <v>996.348440215073</v>
       </c>
       <c r="F41" t="n">
-        <v>666.92457260734</v>
+        <v>666.9245726073405</v>
       </c>
       <c r="G41" t="n">
-        <v>331.7327999325829</v>
+        <v>331.7327999325827</v>
       </c>
       <c r="H41" t="n">
-        <v>98.49201167891633</v>
+        <v>98.4920116789163</v>
       </c>
       <c r="I41" t="n">
         <v>73.23653020320567</v>
       </c>
       <c r="J41" t="n">
-        <v>122.2521539153168</v>
+        <v>122.2521539153169</v>
       </c>
       <c r="K41" t="n">
-        <v>567.3563445615262</v>
+        <v>567.3563445615263</v>
       </c>
       <c r="L41" t="n">
-        <v>1117.330040207372</v>
+        <v>1171.824079405238</v>
       </c>
       <c r="M41" t="n">
-        <v>1806.52340915753</v>
+        <v>1861.017448355396</v>
       </c>
       <c r="N41" t="n">
-        <v>2492.236649800971</v>
+        <v>2546.730688998838</v>
       </c>
       <c r="O41" t="n">
-        <v>3094.548580571688</v>
+        <v>3149.042619769554</v>
       </c>
       <c r="P41" t="n">
-        <v>3570.933495597946</v>
+        <v>3381.303038274253</v>
       </c>
       <c r="Q41" t="n">
-        <v>3641.265126730671</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="R41" t="n">
-        <v>3661.826510160284</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="S41" t="n">
         <v>3594.783894668381</v>
@@ -7488,25 +7488,25 @@
         <v>73.23653020320567</v>
       </c>
       <c r="J42" t="n">
-        <v>83.61205293850772</v>
+        <v>83.61205293850774</v>
       </c>
       <c r="K42" t="n">
-        <v>179.5002986070103</v>
+        <v>441.3208832494632</v>
       </c>
       <c r="L42" t="n">
-        <v>450.3729285579138</v>
+        <v>983.7089459008369</v>
       </c>
       <c r="M42" t="n">
-        <v>1135.293436520205</v>
+        <v>1207.581440750628</v>
       </c>
       <c r="N42" t="n">
-        <v>1854.048765671135</v>
+        <v>1451.787819301441</v>
       </c>
       <c r="O42" t="n">
-        <v>2445.15379334178</v>
+        <v>2042.892846972086</v>
       </c>
       <c r="P42" t="n">
-        <v>2587.286482156311</v>
+        <v>2500.303676740155</v>
       </c>
       <c r="Q42" t="n">
         <v>2632.379224169157</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.5444116533097</v>
+        <v>557.5444116533092</v>
       </c>
       <c r="C43" t="n">
-        <v>470.1702659072777</v>
+        <v>470.1702659072773</v>
       </c>
       <c r="D43" t="n">
-        <v>401.615663676817</v>
+        <v>401.6156636768166</v>
       </c>
       <c r="E43" t="n">
-        <v>335.2646072762988</v>
+        <v>335.2646072762984</v>
       </c>
       <c r="F43" t="n">
-        <v>269.9366969602634</v>
+        <v>269.936696960263</v>
       </c>
       <c r="G43" t="n">
-        <v>183.0416974375815</v>
+        <v>183.0416974375811</v>
       </c>
       <c r="H43" t="n">
-        <v>111.6810234961165</v>
+        <v>111.6810234961164</v>
       </c>
       <c r="I43" t="n">
         <v>73.23653020320567</v>
@@ -7588,31 +7588,31 @@
         <v>1745.070971121654</v>
       </c>
       <c r="Q43" t="n">
-        <v>1840.723011867957</v>
+        <v>1840.723011867956</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.543013697376</v>
+        <v>1798.543013697375</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.275516233607</v>
+        <v>1675.275516233606</v>
       </c>
       <c r="T43" t="n">
-        <v>1531.848446737193</v>
+        <v>1531.848446737192</v>
       </c>
       <c r="U43" t="n">
-        <v>1324.26647885857</v>
+        <v>1324.266478858569</v>
       </c>
       <c r="V43" t="n">
-        <v>1151.144027834558</v>
+        <v>1151.144027834557</v>
       </c>
       <c r="W43" t="n">
-        <v>943.2888949794719</v>
+        <v>943.2888949794717</v>
       </c>
       <c r="X43" t="n">
-        <v>796.8613812633296</v>
+        <v>796.8613812633291</v>
       </c>
       <c r="Y43" t="n">
-        <v>657.6308393016744</v>
+        <v>657.630839301674</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1864.678796814856</v>
+        <v>1864.678796814855</v>
       </c>
       <c r="C44" t="n">
         <v>1577.278317056318</v>
       </c>
       <c r="D44" t="n">
-        <v>1300.574655631442</v>
+        <v>1300.574655631443</v>
       </c>
       <c r="E44" t="n">
-        <v>996.3484402150727</v>
+        <v>996.3484402150733</v>
       </c>
       <c r="F44" t="n">
-        <v>666.9245726073402</v>
+        <v>666.9245726073407</v>
       </c>
       <c r="G44" t="n">
         <v>331.7327999325827</v>
@@ -7646,10 +7646,10 @@
         <v>73.23653020320567</v>
       </c>
       <c r="J44" t="n">
-        <v>289.6578029356698</v>
+        <v>289.6578029356699</v>
       </c>
       <c r="K44" t="n">
-        <v>734.7619935818791</v>
+        <v>734.7619935818793</v>
       </c>
       <c r="L44" t="n">
         <v>1339.229728425591</v>
@@ -7658,40 +7658,40 @@
         <v>2028.423097375749</v>
       </c>
       <c r="N44" t="n">
-        <v>2714.13633801919</v>
+        <v>2714.136338019191</v>
       </c>
       <c r="O44" t="n">
-        <v>3316.448268789906</v>
+        <v>3316.448268789907</v>
       </c>
       <c r="P44" t="n">
-        <v>3570.933495597947</v>
+        <v>3474.252462726398</v>
       </c>
       <c r="Q44" t="n">
-        <v>3641.265126730672</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="R44" t="n">
-        <v>3661.826510160284</v>
+        <v>3661.826510160283</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.783894668382</v>
+        <v>3594.783894668381</v>
       </c>
       <c r="T44" t="n">
-        <v>3463.008032140598</v>
+        <v>3463.008032140597</v>
       </c>
       <c r="U44" t="n">
-        <v>3290.905083820179</v>
+        <v>3290.905083820178</v>
       </c>
       <c r="V44" t="n">
         <v>3041.404233658483</v>
       </c>
       <c r="W44" t="n">
-        <v>2770.197615570244</v>
+        <v>2770.197615570243</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.293894491039</v>
+        <v>2478.293894491038</v>
       </c>
       <c r="Y44" t="n">
-        <v>2169.716599697103</v>
+        <v>2169.716599697102</v>
       </c>
     </row>
     <row r="45">
@@ -7713,7 +7713,7 @@
         <v>495.9765634948874</v>
       </c>
       <c r="F45" t="n">
-        <v>349.4420055217724</v>
+        <v>349.4420055217723</v>
       </c>
       <c r="G45" t="n">
         <v>212.179298604599</v>
@@ -7725,25 +7725,25 @@
         <v>73.23653020320567</v>
       </c>
       <c r="J45" t="n">
-        <v>83.61205293850766</v>
+        <v>208.4421779255125</v>
       </c>
       <c r="K45" t="n">
-        <v>179.5002986070102</v>
+        <v>566.151008236468</v>
       </c>
       <c r="L45" t="n">
-        <v>450.3729285579146</v>
+        <v>741.407129037417</v>
       </c>
       <c r="M45" t="n">
-        <v>1135.293436520205</v>
+        <v>965.2796238872079</v>
       </c>
       <c r="N45" t="n">
-        <v>1854.048765671136</v>
+        <v>1684.034953038139</v>
       </c>
       <c r="O45" t="n">
-        <v>2445.153793341781</v>
+        <v>1921.899137529752</v>
       </c>
       <c r="P45" t="n">
-        <v>2587.286482156312</v>
+        <v>2379.309967297821</v>
       </c>
       <c r="Q45" t="n">
         <v>2632.379224169157</v>
@@ -7786,16 +7786,16 @@
         <v>470.1702659072777</v>
       </c>
       <c r="D46" t="n">
-        <v>401.615663676817</v>
+        <v>401.6156636768169</v>
       </c>
       <c r="E46" t="n">
-        <v>335.2646072762989</v>
+        <v>335.2646072762988</v>
       </c>
       <c r="F46" t="n">
-        <v>269.9366969602636</v>
+        <v>269.9366969602634</v>
       </c>
       <c r="G46" t="n">
-        <v>183.0416974375818</v>
+        <v>183.0416974375815</v>
       </c>
       <c r="H46" t="n">
         <v>111.6810234961164</v>
@@ -7804,16 +7804,16 @@
         <v>73.23653020320567</v>
       </c>
       <c r="J46" t="n">
-        <v>146.0372764048323</v>
+        <v>146.0372764048318</v>
       </c>
       <c r="K46" t="n">
-        <v>344.0827998085423</v>
+        <v>344.0827998085418</v>
       </c>
       <c r="L46" t="n">
-        <v>630.6839349593856</v>
+        <v>630.6839349593854</v>
       </c>
       <c r="M46" t="n">
-        <v>938.9083059753391</v>
+        <v>938.9083059753389</v>
       </c>
       <c r="N46" t="n">
         <v>1247.13917640721</v>
@@ -7843,13 +7843,13 @@
         <v>1151.144027834558</v>
       </c>
       <c r="W46" t="n">
-        <v>943.2888949794725</v>
+        <v>943.2888949794719</v>
       </c>
       <c r="X46" t="n">
-        <v>796.8613812633301</v>
+        <v>796.8613812633296</v>
       </c>
       <c r="Y46" t="n">
-        <v>657.6308393016743</v>
+        <v>657.6308393016744</v>
       </c>
     </row>
   </sheetData>
@@ -8459,7 +8459,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
         <v>236.2891093383024</v>
@@ -8468,7 +8468,7 @@
         <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>237.8312214670128</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>252.0681059051934</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>406.2011393322659</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>397.5498113693123</v>
+        <v>397.5498113693124</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>14.96358174500133</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>89.68707032691071</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7086907892989</v>
+        <v>248.624477179889</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,19 +8930,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>150.0185473311418</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>406.2011393322659</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>124.6175892616211</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7086907892989</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>145.5554158127502</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.30949366338888</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>77.27181952318116</v>
+        <v>152.3652517308242</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>44.94734570165707</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>14.28751969011822</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>426.7086907892989</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>145.5554158127504</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>229.7890945937295</v>
       </c>
       <c r="M20" t="n">
-        <v>406.2011393322659</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>126.9642936613025</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>44.94734570165707</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>145.5554158127501</v>
+        <v>145.5554158127504</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,19 +9644,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>54.8264801544658</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>29.33150341220777</v>
       </c>
       <c r="R23" t="n">
         <v>44.94734570165707</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>145.5554158127511</v>
+        <v>145.5554158127507</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>101.0562093566084</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>45.16110602535593</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,13 +9954,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>205.0843615147951</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>87.86141961227963</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.994861616673553</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>311.0244956168338</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>44.94734570165707</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>145.5554158127508</v>
+        <v>16.15833354859976</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.48314202004778</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>286.1448370796379</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>145.5554158127508</v>
+        <v>145.5554158127506</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>118.4266831324865</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>118.4266831324861</v>
       </c>
       <c r="R35" t="n">
         <v>44.9473457016571</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>145.5554158127516</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>87.86141961228012</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>145.5554158127516</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>87.86141961228012</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>362.6167305122019</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>75.20830764465438</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>44.94734570165707</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.58233247470156</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>87.86141961227963</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>97.6576089611624</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>118.4266831324851</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>44.94734570165707</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.58233247470258</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>37.05338677265649</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.9874248534244</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>284.5264749609513</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.1839532622056</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>17.02877920572251</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>230.9083803711297</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.00292666095348</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.4581039025063</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>247.0058416600787</v>
       </c>
       <c r="W11" t="n">
-        <v>268.4945519073568</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>231.7091894781018</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.9874248534244</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>273.9366248106267</v>
       </c>
       <c r="E14" t="n">
-        <v>301.1839532622056</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>326.1296289316552</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.00292666095349</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.3721893369831</v>
+        <v>16.61968716539426</v>
       </c>
       <c r="T14" t="n">
-        <v>44.11772383260609</v>
+        <v>130.4581039025063</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>247.0058416600787</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.4915218459973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>188.8914394752166</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>292.6405461354513</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>61.46022186904055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.17288052442439</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>91.25879508994761</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>229.2952430947981</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.17288052442438</v>
+        <v>27.17288052442436</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>57.70882945056064</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>131.1826100246561</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>229.2952430947981</v>
       </c>
       <c r="X20" t="n">
-        <v>188.8914394752166</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.395113147537056</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>67.56725075161329</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>68.96236389915492</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.96236389915269</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.96236389915491</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>26.55028270830499</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26.55028270830164</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811642.9347534911</v>
+        <v>811642.9347534912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857316.8774564187</v>
+        <v>857316.8774564185</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>923473.2649901893</v>
+        <v>923473.2649901892</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>923473.2649901892</v>
+        <v>923473.2649901893</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>923678.4480051037</v>
+        <v>923678.4480051039</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>923806.8941199838</v>
+        <v>923806.8941199835</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="D2" t="n">
-        <v>615278.2538993394</v>
+        <v>615278.2538993391</v>
       </c>
       <c r="E2" t="n">
         <v>554937.9044542784</v>
       </c>
       <c r="F2" t="n">
-        <v>554937.9044542783</v>
+        <v>554937.9044542785</v>
       </c>
       <c r="G2" t="n">
-        <v>589193.3614814742</v>
+        <v>589193.361481474</v>
       </c>
       <c r="H2" t="n">
-        <v>589193.3614814744</v>
+        <v>589193.3614814741</v>
       </c>
       <c r="I2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="J2" t="n">
-        <v>614540.0048480275</v>
+        <v>614540.0048480274</v>
       </c>
       <c r="K2" t="n">
-        <v>614540.0048480275</v>
+        <v>614540.0048480276</v>
       </c>
       <c r="L2" t="n">
         <v>615303.4223094636</v>
       </c>
       <c r="M2" t="n">
+        <v>615781.3273982137</v>
+      </c>
+      <c r="N2" t="n">
         <v>615781.3273982134</v>
       </c>
-      <c r="N2" t="n">
-        <v>615781.3273982137</v>
-      </c>
       <c r="O2" t="n">
-        <v>615781.3273982136</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982134</v>
       </c>
     </row>
     <row r="3">
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31359.44705004696</v>
+        <v>31359.44705004697</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30517.02236075984</v>
+        <v>30517.02236075975</v>
       </c>
       <c r="J3" t="n">
-        <v>72534.11161619476</v>
+        <v>72534.11161619482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32782.62349348345</v>
+        <v>32782.62349348341</v>
       </c>
       <c r="M3" t="n">
         <v>160795.6616517481</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30923.59076700749</v>
+        <v>30923.59076700727</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>153837.7459475947</v>
+        <v>153837.7459475948</v>
       </c>
       <c r="F4" t="n">
-        <v>153837.7459475947</v>
+        <v>153837.7459475948</v>
       </c>
       <c r="G4" t="n">
         <v>179709.8080520911</v>
       </c>
       <c r="H4" t="n">
-        <v>179709.808052091</v>
+        <v>179709.8080520911</v>
       </c>
       <c r="I4" t="n">
         <v>193327.968331861</v>
       </c>
       <c r="J4" t="n">
-        <v>183404.9281394838</v>
+        <v>183404.9281394837</v>
       </c>
       <c r="K4" t="n">
         <v>183404.9281394837</v>
       </c>
       <c r="L4" t="n">
-        <v>184386.701464414</v>
+        <v>184386.7014644139</v>
       </c>
       <c r="M4" t="n">
         <v>185001.2989706073</v>
       </c>
       <c r="N4" t="n">
-        <v>185001.2989706073</v>
+        <v>185001.2989706074</v>
       </c>
       <c r="O4" t="n">
         <v>185001.2989706073</v>
       </c>
       <c r="P4" t="n">
-        <v>185001.2989706075</v>
+        <v>185001.2989706073</v>
       </c>
     </row>
     <row r="5">
@@ -26491,13 +26491,13 @@
         <v>71484.6489785412</v>
       </c>
       <c r="J5" t="n">
-        <v>77615.34305738902</v>
+        <v>77615.34305738904</v>
       </c>
       <c r="K5" t="n">
-        <v>77615.34305738902</v>
+        <v>77615.34305738905</v>
       </c>
       <c r="L5" t="n">
-        <v>77346.83575182204</v>
+        <v>77346.83575182207</v>
       </c>
       <c r="M5" t="n">
         <v>77178.74815338592</v>
@@ -26506,10 +26506,10 @@
         <v>77178.74815338592</v>
       </c>
       <c r="O5" t="n">
-        <v>77178.74815338594</v>
+        <v>77178.74815338592</v>
       </c>
       <c r="P5" t="n">
-        <v>77178.74815338594</v>
+        <v>77178.74815338592</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155306.5148716752</v>
+        <v>155302.1012938072</v>
       </c>
       <c r="C6" t="n">
-        <v>155306.5148716753</v>
+        <v>155302.1012938073</v>
       </c>
       <c r="D6" t="n">
-        <v>153675.816959961</v>
+        <v>153674.1400482979</v>
       </c>
       <c r="E6" t="n">
-        <v>-460456.3284677684</v>
+        <v>-460659.1398775815</v>
       </c>
       <c r="F6" t="n">
-        <v>339888.3478503028</v>
+        <v>339685.5364404899</v>
       </c>
       <c r="G6" t="n">
-        <v>313616.8490303925</v>
+        <v>313528.2224773365</v>
       </c>
       <c r="H6" t="n">
-        <v>344976.2960804396</v>
+        <v>344887.6695273836</v>
       </c>
       <c r="I6" t="n">
-        <v>320451.6877270501</v>
+        <v>320451.6877270503</v>
       </c>
       <c r="J6" t="n">
-        <v>280985.62203496</v>
+        <v>280981.4842931259</v>
       </c>
       <c r="K6" t="n">
-        <v>353519.7336511547</v>
+        <v>353515.595909321</v>
       </c>
       <c r="L6" t="n">
-        <v>320787.2615997442</v>
+        <v>320785.6685827817</v>
       </c>
       <c r="M6" t="n">
-        <v>192805.6186224721</v>
+        <v>192805.6186224723</v>
       </c>
       <c r="N6" t="n">
-        <v>353601.2802742205</v>
+        <v>353601.2802742202</v>
       </c>
       <c r="O6" t="n">
-        <v>322677.6895072128</v>
+        <v>322677.6895072126</v>
       </c>
       <c r="P6" t="n">
-        <v>353601.2802742196</v>
+        <v>353601.2802742202</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="F2" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="G2" t="n">
         <v>119.9457256226149</v>
@@ -26707,25 +26707,25 @@
         <v>119.9457256226149</v>
       </c>
       <c r="J2" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="K2" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="L2" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="M2" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="N2" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="O2" t="n">
         <v>80.7464168100562</v>
       </c>
       <c r="P2" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>675.7208570708721</v>
       </c>
       <c r="H3" t="n">
-        <v>675.7208570708722</v>
+        <v>675.7208570708721</v>
       </c>
       <c r="I3" t="n">
         <v>675.7208570708721</v>
@@ -26774,10 +26774,10 @@
         <v>675.7208570708719</v>
       </c>
       <c r="O3" t="n">
-        <v>675.7208570708719</v>
+        <v>675.7208570708721</v>
       </c>
       <c r="P3" t="n">
-        <v>675.7208570708717</v>
+        <v>675.7208570708721</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>652.8425239709059</v>
       </c>
       <c r="I4" t="n">
-        <v>767.6022547208648</v>
+        <v>767.6022547208645</v>
       </c>
       <c r="J4" t="n">
-        <v>926.6371297769997</v>
+        <v>926.6371297770002</v>
       </c>
       <c r="K4" t="n">
-        <v>926.6371297769997</v>
+        <v>926.6371297770005</v>
       </c>
       <c r="L4" t="n">
-        <v>919.7610840352883</v>
+        <v>919.7610840352891</v>
       </c>
       <c r="M4" t="n">
-        <v>915.4566275400709</v>
+        <v>915.4566275400708</v>
       </c>
       <c r="N4" t="n">
-        <v>915.4566275400709</v>
+        <v>915.4566275400708</v>
       </c>
       <c r="O4" t="n">
-        <v>915.4566275400709</v>
+        <v>915.4566275400708</v>
       </c>
       <c r="P4" t="n">
-        <v>915.4566275400709</v>
+        <v>915.4566275400708</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.1993088125587</v>
+        <v>39.19930881255871</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.65448845875926</v>
+        <v>38.65448845875908</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.97827936685431</v>
+        <v>40.97827936685427</v>
       </c>
       <c r="M2" t="n">
-        <v>1.113648984442591</v>
+        <v>1.113648984442847</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.65448845875936</v>
+        <v>38.65448845875909</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.759730749959</v>
+        <v>114.7597307499586</v>
       </c>
       <c r="J4" t="n">
-        <v>159.0348750561349</v>
+        <v>159.0348750561357</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>641.6620217339771</v>
+        <v>641.6620217339762</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.1993088125587</v>
+        <v>39.19930881255871</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.65448845875926</v>
+        <v>38.65448845875908</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R8" t="n">
-        <v>142.9930721994382</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>167.3986692252742</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.84800438960156</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0653363392634</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>173.7755590926379</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28056,19 +28056,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>221.8891683389821</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="C11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="D11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="E11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="F11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="G11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="H11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="I11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="T11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="U11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="V11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="W11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="X11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
     </row>
     <row r="12">
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="C13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="D13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="E13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="F13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="G13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="H13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="I13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="J13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="K13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="L13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="M13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="N13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="O13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="P13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="R13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="S13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="T13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="U13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="V13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="W13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="X13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="C14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="D14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="E14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="F14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="G14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="H14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="I14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="T14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="U14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="V14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="W14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="X14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
     </row>
     <row r="15">
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.146194664324867e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="C16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="D16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="E16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="F16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="G16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="H16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="I16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="J16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="K16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="L16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="M16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="N16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="O16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="P16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="R16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="S16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="T16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="U16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="V16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="W16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="X16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.74641681005622</v>
+        <v>80.74641681005623</v>
       </c>
     </row>
     <row r="17">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.146194664324867e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>7.210309535686363</v>
       </c>
       <c r="K19" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>118.8064651700379</v>
       </c>
       <c r="J22" t="n">
-        <v>7.210309535686349</v>
+        <v>7.210309535686363</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29211,7 +29211,7 @@
         <v>119.9457256226149</v>
       </c>
       <c r="H25" t="n">
-        <v>119.9457256226149</v>
+        <v>119.9457256226148</v>
       </c>
       <c r="I25" t="n">
         <v>118.8064651700379</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="C26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="D26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="E26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="F26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="G26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="H26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="I26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="T26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="U26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="V26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="W26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="X26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="C28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="D28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="E28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="F28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="G28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="H28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="I28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="J28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="K28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="L28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="M28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="N28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="O28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="P28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="R28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="S28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="T28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="U28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="V28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="W28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="X28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.85379727131796</v>
+        <v>77.85379727131779</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="C29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="D29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="E29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="F29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="G29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="H29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="I29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="T29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="U29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="V29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="W29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="X29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="Y29" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="C31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="D31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="E31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="F31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="G31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="H31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="I31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="J31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="K31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="L31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="M31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="N31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="O31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="P31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="R31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="S31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="T31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="U31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="V31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="W31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="X31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
       <c r="Y31" t="n">
-        <v>77.8537972713179</v>
+        <v>77.85379727131779</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="C32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="D32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="E32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="F32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="G32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="H32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="I32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="T32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="U32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="V32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="W32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="X32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="C34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="D34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="E34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="F34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="G34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="H34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="I34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="J34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="K34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="L34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="M34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="N34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="O34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="P34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="R34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="S34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="T34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="U34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="V34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="W34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="X34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.63276782561351</v>
+        <v>79.63276782561334</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="C35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="D35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="E35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="F35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="G35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="H35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="I35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="T35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="U35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="V35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="W35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="X35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="C37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="D37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="E37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="F37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="G37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="I37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="J37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="K37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="L37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="M37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="N37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="O37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005625</v>
       </c>
       <c r="P37" t="n">
-        <v>80.74641681005878</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="R37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="S37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="T37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="U37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="V37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="W37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="X37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="C38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="D38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="E38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="F38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="G38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="H38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="I38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="T38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="U38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="V38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="W38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="X38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="C40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="D40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="E40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="F40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="G40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="I40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="J40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005646</v>
       </c>
       <c r="K40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="L40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="M40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="N40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="O40" t="n">
-        <v>80.74641681005903</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="P40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="R40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="S40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="T40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="U40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="V40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="W40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="X40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.7464168100561</v>
+        <v>80.74641681005619</v>
       </c>
     </row>
     <row r="41">
@@ -30651,7 +30651,7 @@
         <v>80.7464168100562</v>
       </c>
       <c r="N43" t="n">
-        <v>80.7464168100563</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="O43" t="n">
         <v>80.7464168100562</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="C44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="D44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="E44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="F44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="G44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="H44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="I44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="T44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="U44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="V44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="W44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="X44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="C46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="D46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="E46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="F46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="G46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="H46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="I46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="J46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.74641681005619</v>
       </c>
       <c r="K46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="L46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="M46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="N46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="O46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="P46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="R46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="S46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="T46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="U46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="V46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="W46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="X46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.74641681005626</v>
+        <v>80.7464168100562</v>
       </c>
     </row>
   </sheetData>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.716465757068831</v>
+        <v>2.71646575706883</v>
       </c>
       <c r="H20" t="n">
         <v>27.82000493458117</v>
@@ -32473,22 +32473,22 @@
         <v>230.5566355490209</v>
       </c>
       <c r="K20" t="n">
-        <v>345.5446310457446</v>
+        <v>345.5446310457445</v>
       </c>
       <c r="L20" t="n">
-        <v>428.6786699586399</v>
+        <v>428.6786699586398</v>
       </c>
       <c r="M20" t="n">
-        <v>476.9876178659127</v>
+        <v>476.9876178659126</v>
       </c>
       <c r="N20" t="n">
         <v>484.7057761981845</v>
       </c>
       <c r="O20" t="n">
-        <v>457.6939198263313</v>
+        <v>457.6939198263312</v>
       </c>
       <c r="P20" t="n">
-        <v>390.6311714486945</v>
+        <v>390.6311714486944</v>
       </c>
       <c r="Q20" t="n">
         <v>293.3477415236669</v>
@@ -32497,7 +32497,7 @@
         <v>170.6381921124751</v>
       </c>
       <c r="S20" t="n">
-        <v>61.90146343920605</v>
+        <v>61.90146343920603</v>
       </c>
       <c r="T20" t="n">
         <v>11.89132885156881</v>
@@ -32543,25 +32543,25 @@
         <v>1.453437315209046</v>
       </c>
       <c r="H21" t="n">
-        <v>14.03714459688737</v>
+        <v>14.03714459688736</v>
       </c>
       <c r="I21" t="n">
-        <v>50.04159177364479</v>
+        <v>50.04159177364478</v>
       </c>
       <c r="J21" t="n">
         <v>137.3179526619213</v>
       </c>
       <c r="K21" t="n">
-        <v>234.6982527809274</v>
+        <v>234.6982527809273</v>
       </c>
       <c r="L21" t="n">
-        <v>315.5807644272975</v>
+        <v>315.5807644272974</v>
       </c>
       <c r="M21" t="n">
-        <v>368.2678671036253</v>
+        <v>368.2678671036252</v>
       </c>
       <c r="N21" t="n">
-        <v>378.0148217306194</v>
+        <v>378.0148217306193</v>
       </c>
       <c r="O21" t="n">
         <v>345.8097106936189</v>
@@ -32570,19 +32570,19 @@
         <v>277.5427799542607</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.5299983414214</v>
+        <v>185.5299983414213</v>
       </c>
       <c r="R21" t="n">
-        <v>90.240608044295</v>
+        <v>90.24060804429499</v>
       </c>
       <c r="S21" t="n">
-        <v>26.99696065750134</v>
+        <v>26.99696065750133</v>
       </c>
       <c r="T21" t="n">
-        <v>5.858372336303126</v>
+        <v>5.858372336303124</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09562087600059516</v>
+        <v>0.09562087600059514</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,7 +32628,7 @@
         <v>36.64400975722042</v>
       </c>
       <c r="J22" t="n">
-        <v>86.14887058098643</v>
+        <v>86.14887058098641</v>
       </c>
       <c r="K22" t="n">
         <v>141.5690582518974</v>
@@ -32640,7 +32640,7 @@
         <v>191.0074547290663</v>
       </c>
       <c r="N22" t="n">
-        <v>186.4657243782623</v>
+        <v>186.4657243782622</v>
       </c>
       <c r="O22" t="n">
         <v>172.2312768153758</v>
@@ -32652,16 +32652,16 @@
         <v>102.0338494177017</v>
       </c>
       <c r="R22" t="n">
-        <v>54.78877637823824</v>
+        <v>54.78877637823823</v>
       </c>
       <c r="S22" t="n">
         <v>21.23535873778461</v>
       </c>
       <c r="T22" t="n">
-        <v>5.206373816775571</v>
+        <v>5.20637381677557</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06646434659713504</v>
+        <v>0.06646434659713503</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34123,25 +34123,25 @@
         <v>2.71646575706883</v>
       </c>
       <c r="H41" t="n">
-        <v>27.82000493458116</v>
+        <v>27.82000493458117</v>
       </c>
       <c r="I41" t="n">
         <v>104.7265460993962</v>
       </c>
       <c r="J41" t="n">
-        <v>230.5566355490208</v>
+        <v>230.5566355490209</v>
       </c>
       <c r="K41" t="n">
-        <v>345.5446310457444</v>
+        <v>345.5446310457445</v>
       </c>
       <c r="L41" t="n">
-        <v>428.6786699586397</v>
+        <v>428.6786699586398</v>
       </c>
       <c r="M41" t="n">
-        <v>476.9876178659125</v>
+        <v>476.9876178659126</v>
       </c>
       <c r="N41" t="n">
-        <v>484.7057761981844</v>
+        <v>484.7057761981845</v>
       </c>
       <c r="O41" t="n">
         <v>457.6939198263312</v>
@@ -34150,10 +34150,10 @@
         <v>390.6311714486944</v>
       </c>
       <c r="Q41" t="n">
-        <v>293.3477415236668</v>
+        <v>293.3477415236669</v>
       </c>
       <c r="R41" t="n">
-        <v>170.638192112475</v>
+        <v>170.6381921124751</v>
       </c>
       <c r="S41" t="n">
         <v>61.90146343920603</v>
@@ -34162,7 +34162,7 @@
         <v>11.89132885156881</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2173172605655063</v>
+        <v>0.2173172605655064</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.453437315209045</v>
+        <v>1.453437315209046</v>
       </c>
       <c r="H42" t="n">
         <v>14.03714459688736</v>
       </c>
       <c r="I42" t="n">
-        <v>50.04159177364477</v>
+        <v>50.04159177364478</v>
       </c>
       <c r="J42" t="n">
         <v>137.3179526619213</v>
@@ -34220,28 +34220,28 @@
         <v>368.2678671036252</v>
       </c>
       <c r="N42" t="n">
-        <v>378.0148217306192</v>
+        <v>378.0148217306193</v>
       </c>
       <c r="O42" t="n">
-        <v>345.8097106936188</v>
+        <v>345.8097106936189</v>
       </c>
       <c r="P42" t="n">
-        <v>277.5427799542606</v>
+        <v>277.5427799542607</v>
       </c>
       <c r="Q42" t="n">
         <v>185.5299983414213</v>
       </c>
       <c r="R42" t="n">
-        <v>90.24060804429497</v>
+        <v>90.24060804429499</v>
       </c>
       <c r="S42" t="n">
         <v>26.99696065750133</v>
       </c>
       <c r="T42" t="n">
-        <v>5.858372336303123</v>
+        <v>5.858372336303124</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09562087600059513</v>
+        <v>0.09562087600059514</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,19 +34281,19 @@
         <v>1.218513020947474</v>
       </c>
       <c r="H43" t="n">
-        <v>10.833688495333</v>
+        <v>10.83368849533301</v>
       </c>
       <c r="I43" t="n">
-        <v>36.64400975722041</v>
+        <v>36.64400975722042</v>
       </c>
       <c r="J43" t="n">
-        <v>86.1488705809864</v>
+        <v>86.14887058098641</v>
       </c>
       <c r="K43" t="n">
         <v>141.5690582518974</v>
       </c>
       <c r="L43" t="n">
-        <v>181.1596540415908</v>
+        <v>181.1596540415909</v>
       </c>
       <c r="M43" t="n">
         <v>191.0074547290663</v>
@@ -34302,25 +34302,25 @@
         <v>186.4657243782622</v>
       </c>
       <c r="O43" t="n">
-        <v>172.2312768153757</v>
+        <v>172.2312768153758</v>
       </c>
       <c r="P43" t="n">
-        <v>147.3736111880471</v>
+        <v>147.3736111880472</v>
       </c>
       <c r="Q43" t="n">
         <v>102.0338494177017</v>
       </c>
       <c r="R43" t="n">
-        <v>54.78877637823822</v>
+        <v>54.78877637823823</v>
       </c>
       <c r="S43" t="n">
-        <v>21.2353587377846</v>
+        <v>21.23535873778461</v>
       </c>
       <c r="T43" t="n">
-        <v>5.206373816775569</v>
+        <v>5.20637381677557</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06646434659713502</v>
+        <v>0.06646434659713503</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.716465757068829</v>
+        <v>2.71646575706883</v>
       </c>
       <c r="H44" t="n">
-        <v>27.82000493458115</v>
+        <v>27.82000493458117</v>
       </c>
       <c r="I44" t="n">
-        <v>104.7265460993961</v>
+        <v>104.7265460993962</v>
       </c>
       <c r="J44" t="n">
-        <v>230.5566355490207</v>
+        <v>230.5566355490209</v>
       </c>
       <c r="K44" t="n">
-        <v>345.5446310457443</v>
+        <v>345.5446310457445</v>
       </c>
       <c r="L44" t="n">
-        <v>428.6786699586396</v>
+        <v>428.6786699586398</v>
       </c>
       <c r="M44" t="n">
-        <v>476.9876178659123</v>
+        <v>476.9876178659126</v>
       </c>
       <c r="N44" t="n">
-        <v>484.7057761981842</v>
+        <v>484.7057761981845</v>
       </c>
       <c r="O44" t="n">
-        <v>457.693919826331</v>
+        <v>457.6939198263312</v>
       </c>
       <c r="P44" t="n">
-        <v>390.6311714486943</v>
+        <v>390.6311714486944</v>
       </c>
       <c r="Q44" t="n">
-        <v>293.3477415236667</v>
+        <v>293.3477415236669</v>
       </c>
       <c r="R44" t="n">
-        <v>170.638192112475</v>
+        <v>170.6381921124751</v>
       </c>
       <c r="S44" t="n">
-        <v>61.901463439206</v>
+        <v>61.90146343920603</v>
       </c>
       <c r="T44" t="n">
-        <v>11.8913288515688</v>
+        <v>11.89132885156881</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2173172605655063</v>
+        <v>0.2173172605655064</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.453437315209045</v>
+        <v>1.453437315209046</v>
       </c>
       <c r="H45" t="n">
         <v>14.03714459688736</v>
       </c>
       <c r="I45" t="n">
-        <v>50.04159177364475</v>
+        <v>50.04159177364478</v>
       </c>
       <c r="J45" t="n">
-        <v>137.3179526619212</v>
+        <v>137.3179526619213</v>
       </c>
       <c r="K45" t="n">
-        <v>234.6982527809272</v>
+        <v>234.6982527809273</v>
       </c>
       <c r="L45" t="n">
-        <v>315.5807644272973</v>
+        <v>315.5807644272974</v>
       </c>
       <c r="M45" t="n">
-        <v>368.2678671036251</v>
+        <v>368.2678671036252</v>
       </c>
       <c r="N45" t="n">
-        <v>378.0148217306191</v>
+        <v>378.0148217306193</v>
       </c>
       <c r="O45" t="n">
-        <v>345.8097106936187</v>
+        <v>345.8097106936189</v>
       </c>
       <c r="P45" t="n">
-        <v>277.5427799542605</v>
+        <v>277.5427799542607</v>
       </c>
       <c r="Q45" t="n">
-        <v>185.5299983414212</v>
+        <v>185.5299983414213</v>
       </c>
       <c r="R45" t="n">
-        <v>90.24060804429494</v>
+        <v>90.24060804429499</v>
       </c>
       <c r="S45" t="n">
-        <v>26.99696065750132</v>
+        <v>26.99696065750133</v>
       </c>
       <c r="T45" t="n">
-        <v>5.858372336303121</v>
+        <v>5.858372336303124</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0956208760005951</v>
+        <v>0.09562087600059514</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.218513020947473</v>
+        <v>1.218513020947474</v>
       </c>
       <c r="H46" t="n">
-        <v>10.833688495333</v>
+        <v>10.83368849533301</v>
       </c>
       <c r="I46" t="n">
-        <v>36.6440097572204</v>
+        <v>36.64400975722042</v>
       </c>
       <c r="J46" t="n">
-        <v>86.14887058098637</v>
+        <v>86.14887058098641</v>
       </c>
       <c r="K46" t="n">
-        <v>141.5690582518973</v>
+        <v>141.5690582518974</v>
       </c>
       <c r="L46" t="n">
-        <v>181.1596540415908</v>
+        <v>181.1596540415909</v>
       </c>
       <c r="M46" t="n">
-        <v>191.0074547290662</v>
+        <v>191.0074547290663</v>
       </c>
       <c r="N46" t="n">
-        <v>186.4657243782621</v>
+        <v>186.4657243782622</v>
       </c>
       <c r="O46" t="n">
-        <v>172.2312768153757</v>
+        <v>172.2312768153758</v>
       </c>
       <c r="P46" t="n">
-        <v>147.3736111880471</v>
+        <v>147.3736111880472</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.0338494177016</v>
+        <v>102.0338494177017</v>
       </c>
       <c r="R46" t="n">
-        <v>54.7887763782382</v>
+        <v>54.78877637823823</v>
       </c>
       <c r="S46" t="n">
-        <v>21.2353587377846</v>
+        <v>21.23535873778461</v>
       </c>
       <c r="T46" t="n">
-        <v>5.206373816775567</v>
+        <v>5.20637381677557</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06646434659713499</v>
+        <v>0.06646434659713503</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
@@ -35188,7 +35188,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.51073102233457</v>
+        <v>218.6073461944083</v>
       </c>
       <c r="K11" t="n">
-        <v>125.4547800007639</v>
+        <v>377.5228859059573</v>
       </c>
       <c r="L11" t="n">
         <v>610.573469539103</v>
       </c>
       <c r="M11" t="n">
-        <v>652.8425239709059</v>
+        <v>246.6413846386399</v>
       </c>
       <c r="N11" t="n">
         <v>652.8425239709059</v>
@@ -35425,7 +35425,7 @@
         <v>227.5957084046445</v>
       </c>
       <c r="P11" t="n">
-        <v>174.3617574384262</v>
+        <v>159.3981756934249</v>
       </c>
       <c r="Q11" t="n">
         <v>71.04205164921737</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>136.5713613356635</v>
+        <v>10.48032599525462</v>
       </c>
       <c r="K12" t="n">
         <v>361.322050819147</v>
       </c>
       <c r="L12" t="n">
-        <v>266.713454974334</v>
+        <v>177.0263846474232</v>
       </c>
       <c r="M12" t="n">
-        <v>652.8425239709059</v>
+        <v>474.7583103614959</v>
       </c>
       <c r="N12" t="n">
         <v>246.673109647286</v>
       </c>
       <c r="O12" t="n">
-        <v>203.2134662491744</v>
+        <v>597.0757855259039</v>
       </c>
       <c r="P12" t="n">
         <v>462.0311411798676</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.53610727436985</v>
+        <v>73.53610727436987</v>
       </c>
       <c r="K13" t="n">
         <v>200.0459832360708</v>
       </c>
       <c r="L13" t="n">
-        <v>289.4960961119632</v>
+        <v>289.4960961119633</v>
       </c>
       <c r="M13" t="n">
         <v>311.3377485009631</v>
@@ -35586,7 +35586,7 @@
         <v>225.3985872629969</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.61822297606351</v>
+        <v>96.61822297606352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>449.6001925719287</v>
       </c>
       <c r="L14" t="n">
-        <v>342.9308023197944</v>
+        <v>192.9122549886526</v>
       </c>
       <c r="M14" t="n">
-        <v>246.6413846386399</v>
+        <v>652.8425239709059</v>
       </c>
       <c r="N14" t="n">
         <v>255.2927126015936</v>
       </c>
       <c r="O14" t="n">
-        <v>608.3958896673898</v>
+        <v>227.5957084046445</v>
       </c>
       <c r="P14" t="n">
-        <v>159.3981756934249</v>
+        <v>284.015764955046</v>
       </c>
       <c r="Q14" t="n">
         <v>283.3570423091221</v>
@@ -35732,16 +35732,16 @@
         <v>547.8667299508825</v>
       </c>
       <c r="M15" t="n">
-        <v>652.8425239709059</v>
+        <v>226.1338331816069</v>
       </c>
       <c r="N15" t="n">
-        <v>246.673109647286</v>
+        <v>392.2285254600362</v>
       </c>
       <c r="O15" t="n">
         <v>203.2134662491744</v>
       </c>
       <c r="P15" t="n">
-        <v>180.8778662033193</v>
+        <v>462.0311411798676</v>
       </c>
       <c r="Q15" t="n">
         <v>255.6255119912489</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>73.53610727436985</v>
+        <v>73.53610727436987</v>
       </c>
       <c r="K16" t="n">
         <v>200.0459832360708</v>
       </c>
       <c r="L16" t="n">
-        <v>289.4960961119632</v>
+        <v>289.4960961119633</v>
       </c>
       <c r="M16" t="n">
         <v>311.3377485009631</v>
@@ -35823,7 +35823,7 @@
         <v>225.3985872629969</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.61822297606351</v>
+        <v>96.61822297606352</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>218.6073461944083</v>
       </c>
       <c r="K17" t="n">
-        <v>202.7265995239451</v>
+        <v>277.8200317315881</v>
       </c>
       <c r="L17" t="n">
-        <v>610.573469539103</v>
+        <v>192.9122549886526</v>
       </c>
       <c r="M17" t="n">
         <v>246.6413846386399</v>
@@ -35899,13 +35899,13 @@
         <v>608.3958896673898</v>
       </c>
       <c r="P17" t="n">
-        <v>159.3981756934249</v>
+        <v>481.1968838649075</v>
       </c>
       <c r="Q17" t="n">
         <v>283.3570423091221</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>20.76907417132537</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>361.322050819147</v>
       </c>
       <c r="L18" t="n">
-        <v>191.3139043375415</v>
+        <v>547.8667299508825</v>
       </c>
       <c r="M18" t="n">
-        <v>652.8425239709059</v>
+        <v>226.1338331816069</v>
       </c>
       <c r="N18" t="n">
         <v>246.673109647286</v>
       </c>
       <c r="O18" t="n">
-        <v>597.0757855259039</v>
+        <v>348.7688820619248</v>
       </c>
       <c r="P18" t="n">
-        <v>143.5683725399304</v>
+        <v>462.0311411798676</v>
       </c>
       <c r="Q18" t="n">
         <v>255.6255119912489</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>119.2995664260148</v>
+        <v>119.2995664260146</v>
       </c>
       <c r="L19" t="n">
         <v>208.749679301907</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>218.6073461944084</v>
+        <v>218.6073461944083</v>
       </c>
       <c r="K20" t="n">
-        <v>125.454780000764</v>
+        <v>449.6001925719287</v>
       </c>
       <c r="L20" t="n">
-        <v>192.9122549886526</v>
+        <v>422.7013495823821</v>
       </c>
       <c r="M20" t="n">
-        <v>652.8425239709059</v>
+        <v>246.6413846386399</v>
       </c>
       <c r="N20" t="n">
         <v>255.2927126015936</v>
       </c>
       <c r="O20" t="n">
-        <v>354.5600020659471</v>
+        <v>227.5957084046445</v>
       </c>
       <c r="P20" t="n">
-        <v>481.1968838649076</v>
+        <v>481.1968838649075</v>
       </c>
       <c r="Q20" t="n">
         <v>283.3570423091221</v>
       </c>
       <c r="R20" t="n">
-        <v>20.7690741713254</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>547.8667299508825</v>
       </c>
       <c r="M21" t="n">
-        <v>371.6892489943571</v>
+        <v>371.6892489943573</v>
       </c>
       <c r="N21" t="n">
-        <v>246.6731096472861</v>
+        <v>246.673109647286</v>
       </c>
       <c r="O21" t="n">
-        <v>203.2134662491745</v>
+        <v>203.2134662491744</v>
       </c>
       <c r="P21" t="n">
         <v>462.0311411798676</v>
       </c>
       <c r="Q21" t="n">
-        <v>255.625511991249</v>
+        <v>255.6255119912489</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,13 +36291,13 @@
         <v>230.5978967574908</v>
       </c>
       <c r="O22" t="n">
-        <v>196.8164047294155</v>
+        <v>196.8164047294154</v>
       </c>
       <c r="P22" t="n">
         <v>144.6521704529407</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.8718061660073</v>
+        <v>15.87180616600729</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>49.51073102233457</v>
+        <v>218.6073461944083</v>
       </c>
       <c r="K23" t="n">
         <v>449.6001925719287</v>
@@ -36364,19 +36364,19 @@
         <v>610.573469539103</v>
       </c>
       <c r="M23" t="n">
-        <v>246.6413846386399</v>
+        <v>696.1549181314724</v>
       </c>
       <c r="N23" t="n">
-        <v>310.1191927560594</v>
+        <v>255.2927126015936</v>
       </c>
       <c r="O23" t="n">
-        <v>608.3958896673898</v>
+        <v>227.5957084046445</v>
       </c>
       <c r="P23" t="n">
         <v>481.1968838649075</v>
       </c>
       <c r="Q23" t="n">
-        <v>283.3570423091221</v>
+        <v>100.3735550614251</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>246.673109647286</v>
       </c>
       <c r="O24" t="n">
-        <v>348.7688820619255</v>
+        <v>348.7688820619251</v>
       </c>
       <c r="P24" t="n">
         <v>462.0311411798676</v>
@@ -36519,7 +36519,7 @@
         <v>119.2995664260146</v>
       </c>
       <c r="L25" t="n">
-        <v>208.7496793019072</v>
+        <v>208.749679301907</v>
       </c>
       <c r="M25" t="n">
         <v>230.5913316909069</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>150.5669403789429</v>
+        <v>218.6073461944083</v>
       </c>
       <c r="K26" t="n">
-        <v>125.4547800007639</v>
+        <v>449.6001925719287</v>
       </c>
       <c r="L26" t="n">
         <v>610.573469539103</v>
@@ -36604,7 +36604,7 @@
         <v>696.1549181314724</v>
       </c>
       <c r="N26" t="n">
-        <v>692.6396370135777</v>
+        <v>300.4538186269495</v>
       </c>
       <c r="O26" t="n">
         <v>608.3958896673898</v>
@@ -36674,13 +36674,13 @@
         <v>10.48032599525462</v>
       </c>
       <c r="K27" t="n">
-        <v>96.85681380656834</v>
+        <v>361.322050819147</v>
       </c>
       <c r="L27" t="n">
         <v>547.8667299508825</v>
       </c>
       <c r="M27" t="n">
-        <v>691.8388969316068</v>
+        <v>226.1338331816069</v>
       </c>
       <c r="N27" t="n">
         <v>246.673109647286</v>
@@ -36689,10 +36689,10 @@
         <v>597.0757855259039</v>
       </c>
       <c r="P27" t="n">
-        <v>348.6527340547256</v>
+        <v>462.0311411798676</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.54822425539982</v>
+        <v>133.4096438676794</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.6434877356316</v>
+        <v>70.64348773563142</v>
       </c>
       <c r="K28" t="n">
-        <v>197.1533636973325</v>
+        <v>197.1533636973323</v>
       </c>
       <c r="L28" t="n">
-        <v>286.603476573225</v>
+        <v>286.6034765732248</v>
       </c>
       <c r="M28" t="n">
-        <v>308.4451289622248</v>
+        <v>308.4451289622247</v>
       </c>
       <c r="N28" t="n">
-        <v>308.4516940288088</v>
+        <v>308.4516940288086</v>
       </c>
       <c r="O28" t="n">
-        <v>274.6702020007334</v>
+        <v>274.6702020007332</v>
       </c>
       <c r="P28" t="n">
-        <v>222.5059677242586</v>
+        <v>222.5059677242584</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.72560343732525</v>
+        <v>93.72560343732508</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>59.50559263900812</v>
+        <v>49.51073102233457</v>
       </c>
       <c r="K29" t="n">
         <v>449.6001925719287</v>
@@ -36847,13 +36847,13 @@
         <v>608.3958896673898</v>
       </c>
       <c r="P29" t="n">
-        <v>481.1968838649075</v>
+        <v>470.4226713102587</v>
       </c>
       <c r="Q29" t="n">
         <v>71.04205164921737</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>20.76907417132537</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>136.5713613356635</v>
       </c>
       <c r="K30" t="n">
-        <v>361.322050819147</v>
+        <v>96.85681380656834</v>
       </c>
       <c r="L30" t="n">
         <v>547.8667299508825</v>
       </c>
       <c r="M30" t="n">
-        <v>371.6892489943577</v>
+        <v>242.2921667302067</v>
       </c>
       <c r="N30" t="n">
         <v>246.673109647286</v>
       </c>
       <c r="O30" t="n">
-        <v>203.2134662491744</v>
+        <v>597.0757855259039</v>
       </c>
       <c r="P30" t="n">
         <v>462.0311411798676</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.64348773563154</v>
+        <v>70.64348773563142</v>
       </c>
       <c r="K31" t="n">
-        <v>197.1533636973325</v>
+        <v>197.1533636973323</v>
       </c>
       <c r="L31" t="n">
-        <v>286.6034765732249</v>
+        <v>286.6034765732248</v>
       </c>
       <c r="M31" t="n">
-        <v>308.4451289622248</v>
+        <v>308.4451289622247</v>
       </c>
       <c r="N31" t="n">
-        <v>308.4516940288087</v>
+        <v>308.4516940288086</v>
       </c>
       <c r="O31" t="n">
-        <v>274.6702020007334</v>
+        <v>274.6702020007332</v>
       </c>
       <c r="P31" t="n">
-        <v>222.5059677242585</v>
+        <v>222.5059677242584</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.72560343732519</v>
+        <v>93.72560343732508</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>120.9938730423823</v>
+        <v>49.51073102233457</v>
       </c>
       <c r="K32" t="n">
-        <v>449.6001925719287</v>
+        <v>411.5996170804018</v>
       </c>
       <c r="L32" t="n">
         <v>610.573469539103</v>
@@ -37084,10 +37084,10 @@
         <v>608.3958896673898</v>
       </c>
       <c r="P32" t="n">
-        <v>159.3981756934249</v>
+        <v>481.1968838649075</v>
       </c>
       <c r="Q32" t="n">
-        <v>283.3570423091221</v>
+        <v>71.04205164921737</v>
       </c>
       <c r="R32" t="n">
         <v>20.76907417132537</v>
@@ -37154,7 +37154,7 @@
         <v>547.8667299508825</v>
       </c>
       <c r="M33" t="n">
-        <v>371.6892489943577</v>
+        <v>371.6892489943575</v>
       </c>
       <c r="N33" t="n">
         <v>246.673109647286</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.42245828992715</v>
+        <v>72.42245828992698</v>
       </c>
       <c r="K34" t="n">
-        <v>198.9323342516281</v>
+        <v>198.9323342516279</v>
       </c>
       <c r="L34" t="n">
-        <v>288.3824471275205</v>
+        <v>288.3824471275203</v>
       </c>
       <c r="M34" t="n">
-        <v>310.2240995165204</v>
+        <v>310.2240995165203</v>
       </c>
       <c r="N34" t="n">
-        <v>310.2306645831043</v>
+        <v>310.2306645831042</v>
       </c>
       <c r="O34" t="n">
-        <v>276.449172555029</v>
+        <v>276.4491725550288</v>
       </c>
       <c r="P34" t="n">
-        <v>224.2849382785542</v>
+        <v>224.284938278554</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.5045739916208</v>
+        <v>95.50457399162063</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,10 +37321,10 @@
         <v>608.3958896673898</v>
       </c>
       <c r="P35" t="n">
-        <v>277.8248588259113</v>
+        <v>159.3981756934248</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.04205164921731</v>
+        <v>189.4687347817034</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>136.5713613356634</v>
+        <v>10.48032599525459</v>
       </c>
       <c r="K36" t="n">
         <v>361.3220508191469</v>
@@ -37391,19 +37391,19 @@
         <v>547.8667299508824</v>
       </c>
       <c r="M36" t="n">
-        <v>371.6892489943584</v>
+        <v>226.1338331816069</v>
       </c>
       <c r="N36" t="n">
         <v>246.6731096472859</v>
       </c>
       <c r="O36" t="n">
-        <v>203.2134662491744</v>
+        <v>597.0757855259039</v>
       </c>
       <c r="P36" t="n">
         <v>462.0311411798675</v>
       </c>
       <c r="Q36" t="n">
-        <v>255.6255119912489</v>
+        <v>133.4096438676799</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.53610727436973</v>
+        <v>73.53610727436981</v>
       </c>
       <c r="K37" t="n">
-        <v>200.0459832360706</v>
+        <v>200.0459832360707</v>
       </c>
       <c r="L37" t="n">
-        <v>289.4960961119631</v>
+        <v>289.4960961119632</v>
       </c>
       <c r="M37" t="n">
         <v>311.337748500963</v>
       </c>
       <c r="N37" t="n">
-        <v>311.3443135675469</v>
+        <v>311.344313567547</v>
       </c>
       <c r="O37" t="n">
-        <v>277.5628215394715</v>
+        <v>277.5628215394717</v>
       </c>
       <c r="P37" t="n">
-        <v>225.3985872629994</v>
+        <v>225.3985872629968</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.61822297606338</v>
+        <v>96.61822297606346</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>136.5713613356634</v>
+        <v>10.48032599525459</v>
       </c>
       <c r="K39" t="n">
         <v>361.3220508191469</v>
@@ -37628,19 +37628,19 @@
         <v>547.8667299508824</v>
       </c>
       <c r="M39" t="n">
-        <v>371.6892489943584</v>
+        <v>226.1338331816069</v>
       </c>
       <c r="N39" t="n">
         <v>246.6731096472859</v>
       </c>
       <c r="O39" t="n">
-        <v>203.2134662491744</v>
+        <v>597.0757855259039</v>
       </c>
       <c r="P39" t="n">
         <v>462.0311411798675</v>
       </c>
       <c r="Q39" t="n">
-        <v>255.6255119912489</v>
+        <v>133.4096438676799</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.53610727436973</v>
+        <v>73.53610727437008</v>
       </c>
       <c r="K40" t="n">
-        <v>200.0459832360706</v>
+        <v>200.0459832360707</v>
       </c>
       <c r="L40" t="n">
-        <v>289.4960961119631</v>
+        <v>289.4960961119632</v>
       </c>
       <c r="M40" t="n">
         <v>311.337748500963</v>
       </c>
       <c r="N40" t="n">
-        <v>311.3443135675469</v>
+        <v>311.344313567547</v>
       </c>
       <c r="O40" t="n">
-        <v>277.5628215394744</v>
+        <v>277.5628215394716</v>
       </c>
       <c r="P40" t="n">
-        <v>225.3985872629967</v>
+        <v>225.3985872629968</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.61822297606338</v>
+        <v>96.61822297606346</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>49.51073102233451</v>
+        <v>49.51073102233457</v>
       </c>
       <c r="K41" t="n">
-        <v>449.6001925719286</v>
+        <v>449.6001925719287</v>
       </c>
       <c r="L41" t="n">
-        <v>555.5289855008543</v>
+        <v>610.573469539103</v>
       </c>
       <c r="M41" t="n">
-        <v>696.1549181314723</v>
+        <v>696.1549181314724</v>
       </c>
       <c r="N41" t="n">
-        <v>692.6396370135776</v>
+        <v>692.6396370135777</v>
       </c>
       <c r="O41" t="n">
         <v>608.3958896673898</v>
       </c>
       <c r="P41" t="n">
-        <v>481.1968838649075</v>
+        <v>234.6064833380793</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.04205164921731</v>
+        <v>283.3570423091221</v>
       </c>
       <c r="R41" t="n">
-        <v>20.76907417132534</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.48032599525459</v>
+        <v>10.48032599525462</v>
       </c>
       <c r="K42" t="n">
-        <v>96.85681380656831</v>
+        <v>361.322050819147</v>
       </c>
       <c r="L42" t="n">
-        <v>273.6087171221247</v>
+        <v>547.8667299508825</v>
       </c>
       <c r="M42" t="n">
-        <v>691.8388969316068</v>
+        <v>226.1338331816069</v>
       </c>
       <c r="N42" t="n">
-        <v>726.0154839908395</v>
+        <v>246.673109647286</v>
       </c>
       <c r="O42" t="n">
         <v>597.0757855259039</v>
       </c>
       <c r="P42" t="n">
-        <v>143.5683725399304</v>
+        <v>462.0311411798676</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.54822425539979</v>
+        <v>133.4096438676794</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.53610727436983</v>
+        <v>73.53610727436984</v>
       </c>
       <c r="K43" t="n">
         <v>200.0459832360708</v>
@@ -37947,16 +37947,16 @@
         <v>311.3377485009631</v>
       </c>
       <c r="N43" t="n">
-        <v>311.3443135675471</v>
+        <v>311.344313567547</v>
       </c>
       <c r="O43" t="n">
-        <v>277.5628215394716</v>
+        <v>277.5628215394717</v>
       </c>
       <c r="P43" t="n">
         <v>225.3985872629968</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.61822297606348</v>
+        <v>96.61822297606349</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>218.6073461944082</v>
+        <v>218.6073461944083</v>
       </c>
       <c r="K44" t="n">
-        <v>449.6001925719285</v>
+        <v>449.6001925719287</v>
       </c>
       <c r="L44" t="n">
-        <v>610.5734695391028</v>
+        <v>610.573469539103</v>
       </c>
       <c r="M44" t="n">
-        <v>696.1549181314721</v>
+        <v>696.1549181314724</v>
       </c>
       <c r="N44" t="n">
-        <v>692.6396370135774</v>
+        <v>692.6396370135777</v>
       </c>
       <c r="O44" t="n">
-        <v>608.3958896673896</v>
+        <v>608.3958896673898</v>
       </c>
       <c r="P44" t="n">
-        <v>257.0557846545871</v>
+        <v>159.3981756934249</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.0420516492172</v>
+        <v>189.4687347817025</v>
       </c>
       <c r="R44" t="n">
-        <v>20.76907417132529</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>10.48032599525453</v>
+        <v>136.5713613356635</v>
       </c>
       <c r="K45" t="n">
-        <v>96.85681380656823</v>
+        <v>361.322050819147</v>
       </c>
       <c r="L45" t="n">
-        <v>273.6087171221257</v>
+        <v>177.0263846474232</v>
       </c>
       <c r="M45" t="n">
-        <v>691.8388969316067</v>
+        <v>226.1338331816069</v>
       </c>
       <c r="N45" t="n">
-        <v>726.0154839908394</v>
+        <v>726.0154839908396</v>
       </c>
       <c r="O45" t="n">
-        <v>597.0757855259037</v>
+        <v>240.2668530218309</v>
       </c>
       <c r="P45" t="n">
-        <v>143.5683725399303</v>
+        <v>462.0311411798676</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.54822425539973</v>
+        <v>255.6255119912489</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.53610727436985</v>
+        <v>73.53610727436983</v>
       </c>
       <c r="K46" t="n">
         <v>200.0459832360708</v>
       </c>
       <c r="L46" t="n">
-        <v>289.4960961119631</v>
+        <v>289.4960961119632</v>
       </c>
       <c r="M46" t="n">
         <v>311.3377485009631</v>
@@ -38187,13 +38187,13 @@
         <v>311.344313567547</v>
       </c>
       <c r="O46" t="n">
-        <v>277.5628215394716</v>
+        <v>277.5628215394717</v>
       </c>
       <c r="P46" t="n">
         <v>225.3985872629968</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.61822297606351</v>
+        <v>96.61822297606349</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
